--- a/results/resultEditedNemo.xlsx
+++ b/results/resultEditedNemo.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="1097">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="1099">
   <si>
     <t>median</t>
   </si>
@@ -947,250 +947,250 @@
     <t>number of iterations = 100.000000</t>
   </si>
   <si>
-    <t>0.605299581427002</t>
-  </si>
-  <si>
-    <t>9.54240556470537</t>
-  </si>
-  <si>
-    <t>5.23347148271707e-05</t>
-  </si>
-  <si>
-    <t>-0.999972730351365</t>
-  </si>
-  <si>
-    <t>1.04653562047613e-07</t>
-  </si>
-  <si>
-    <t>289.709287876407</t>
-  </si>
-  <si>
-    <t>0.0215163372558174</t>
-  </si>
-  <si>
-    <t>-0.390548725229738</t>
-  </si>
-  <si>
-    <t>3577.00408978348</t>
-  </si>
-  <si>
-    <t>0.0618572997881309</t>
-  </si>
-  <si>
-    <t>-0.196032272466902</t>
-  </si>
-  <si>
-    <t>0.605299743649978</t>
-  </si>
-  <si>
-    <t>9.54288767277084</t>
-  </si>
-  <si>
-    <t>9.79926904430043</t>
-  </si>
-  <si>
-    <t>5.73954253077769e-05</t>
-  </si>
-  <si>
-    <t>-3.1896781846708</t>
-  </si>
-  <si>
-    <t>852.432846411979</t>
-  </si>
-  <si>
-    <t>0.00740616212935409</t>
-  </si>
-  <si>
-    <t>-0.389325789032304</t>
-  </si>
-  <si>
-    <t>1339.11748020917</t>
-  </si>
-  <si>
-    <t>0.0998018974464595</t>
-  </si>
-  <si>
-    <t>-0.19896107733934</t>
-  </si>
-  <si>
-    <t>0.605299837306336</t>
-  </si>
-  <si>
-    <t>2.45604716591421</t>
-  </si>
-  <si>
-    <t>0.605299826703498</t>
-  </si>
-  <si>
-    <t>9.5420564170877</t>
-  </si>
-  <si>
-    <t>0.605299940305852</t>
-  </si>
-  <si>
-    <t>1.66079991947618</t>
-  </si>
-  <si>
-    <t>0.555700898682291</t>
-  </si>
-  <si>
-    <t>-0.958178058882381</t>
-  </si>
-  <si>
-    <t>0.0284835676922553</t>
-  </si>
-  <si>
-    <t>78.9055203963407</t>
-  </si>
-  <si>
-    <t>0.0766891659858788</t>
-  </si>
-  <si>
-    <t>-0.39698535975254</t>
-  </si>
-  <si>
-    <t>1046.19941290764</t>
-  </si>
-  <si>
-    <t>0.116229399645984</t>
-  </si>
-  <si>
-    <t>-0.202549370962879</t>
-  </si>
-  <si>
-    <t>0.736559598926583</t>
-  </si>
-  <si>
-    <t>1.66024389068503</t>
-  </si>
-  <si>
-    <t>0.0669710164573845</t>
-  </si>
-  <si>
-    <t>0.60529986649524</t>
-  </si>
-  <si>
-    <t>1.37077842009478</t>
-  </si>
-  <si>
-    <t>6.08259016154707e-05</t>
-  </si>
-  <si>
-    <t>-0.999969533507786</t>
-  </si>
-  <si>
-    <t>1.2986984719631e-07</t>
-  </si>
-  <si>
-    <t>272.591923888168</t>
-  </si>
-  <si>
-    <t>0.0235629564034669</t>
-  </si>
-  <si>
-    <t>-0.392911346705907</t>
-  </si>
-  <si>
-    <t>163.680451891939</t>
-  </si>
-  <si>
-    <t>0.298568914151934</t>
-  </si>
-  <si>
-    <t>-0.201727180218377</t>
-  </si>
-  <si>
-    <t>0.605299671126389</t>
-  </si>
-  <si>
-    <t>0.863949653650186</t>
-  </si>
-  <si>
-    <t>0.605300111611971</t>
-  </si>
-  <si>
-    <t>2.31648742575441</t>
-  </si>
-  <si>
-    <t>0.566480042899967</t>
-  </si>
-  <si>
-    <t>-35.6245325123051</t>
-  </si>
-  <si>
-    <t>0.586773252254482</t>
-  </si>
-  <si>
-    <t>57.6552572399724</t>
-  </si>
-  <si>
-    <t>0.111475957030082</t>
-  </si>
-  <si>
-    <t>-0.399477020195527</t>
-  </si>
-  <si>
-    <t>554.458189837303</t>
-  </si>
-  <si>
-    <t>0.158214383624513</t>
-  </si>
-  <si>
-    <t>-0.209588306574712</t>
-  </si>
-  <si>
-    <t>0.547880763310415</t>
-  </si>
-  <si>
-    <t>-0.95790042635236</t>
-  </si>
-  <si>
-    <t>0.0262737394637087</t>
-  </si>
-  <si>
-    <t>116.611724751556</t>
-  </si>
-  <si>
-    <t>0.0573650453518277</t>
-  </si>
-  <si>
-    <t>-0.396955337911384</t>
-  </si>
-  <si>
-    <t>158.76561629812</t>
-  </si>
-  <si>
-    <t>0.321033694322907</t>
-  </si>
-  <si>
-    <t>-0.213715516104878</t>
-  </si>
-  <si>
-    <t>0.559515926717109</t>
-  </si>
-  <si>
-    <t>-0.957407478148659</t>
-  </si>
-  <si>
-    <t>0.027242914083777</t>
-  </si>
-  <si>
-    <t>51.6423524660273</t>
-  </si>
-  <si>
-    <t>0.58532174888656</t>
-  </si>
-  <si>
-    <t>-0.218902237661883</t>
-  </si>
-  <si>
-    <t>0.554913859987771</t>
-  </si>
-  <si>
-    <t>-0.958752932607673</t>
-  </si>
-  <si>
-    <t>0.0282491295576625</t>
+    <t>0.605299672161466</t>
+  </si>
+  <si>
+    <t>9.54504806208456</t>
+  </si>
+  <si>
+    <t>1.74840993687502e-05</t>
+  </si>
+  <si>
+    <t>-0.999989711044758</t>
+  </si>
+  <si>
+    <t>3.50060236700643e-08</t>
+  </si>
+  <si>
+    <t>808.941862371232</t>
+  </si>
+  <si>
+    <t>0.00776068567747113</t>
+  </si>
+  <si>
+    <t>-0.384526556992166</t>
+  </si>
+  <si>
+    <t>1163.52633672569</t>
+  </si>
+  <si>
+    <t>0.104156884640898</t>
+  </si>
+  <si>
+    <t>-0.195062974885831</t>
+  </si>
+  <si>
+    <t>0.605299682177379</t>
+  </si>
+  <si>
+    <t>9.54194938212262</t>
+  </si>
+  <si>
+    <t>9.9334962783594</t>
+  </si>
+  <si>
+    <t>5.20232562580707e-05</t>
+  </si>
+  <si>
+    <t>-3.22111706294373</t>
+  </si>
+  <si>
+    <t>1037.33228304765</t>
+  </si>
+  <si>
+    <t>0.00629168548162246</t>
+  </si>
+  <si>
+    <t>-0.385892519150725</t>
+  </si>
+  <si>
+    <t>4821.44272290862</t>
+  </si>
+  <si>
+    <t>0.0484656757038506</t>
+  </si>
+  <si>
+    <t>-0.197527706424733</t>
+  </si>
+  <si>
+    <t>0.605300065837626</t>
+  </si>
+  <si>
+    <t>9.54393308802425</t>
+  </si>
+  <si>
+    <t>0.605299605509349</t>
+  </si>
+  <si>
+    <t>9.55695653861241</t>
+  </si>
+  <si>
+    <t>0.605299824852314</t>
+  </si>
+  <si>
+    <t>1.45134532518698</t>
+  </si>
+  <si>
+    <t>0.557359758481586</t>
+  </si>
+  <si>
+    <t>-0.958743336355161</t>
+  </si>
+  <si>
+    <t>0.029070398813187</t>
+  </si>
+  <si>
+    <t>236.269128423542</t>
+  </si>
+  <si>
+    <t>0.0256071002557398</t>
+  </si>
+  <si>
+    <t>-0.390233138845566</t>
+  </si>
+  <si>
+    <t>234.327474599785</t>
+  </si>
+  <si>
+    <t>0.244670811335863</t>
+  </si>
+  <si>
+    <t>-0.202525645636366</t>
+  </si>
+  <si>
+    <t>0.714232430175102</t>
+  </si>
+  <si>
+    <t>1.80154377137117</t>
+  </si>
+  <si>
+    <t>0.137645335882699</t>
+  </si>
+  <si>
+    <t>0.605299610511831</t>
+  </si>
+  <si>
+    <t>2.20270462687139</t>
+  </si>
+  <si>
+    <t>9.3929855664352e-05</t>
+  </si>
+  <si>
+    <t>-0.999943909285318</t>
+  </si>
+  <si>
+    <t>1.79834605019459e-07</t>
+  </si>
+  <si>
+    <t>380.403498924357</t>
+  </si>
+  <si>
+    <t>0.0175470347298913</t>
+  </si>
+  <si>
+    <t>-0.38912376528441</t>
+  </si>
+  <si>
+    <t>510.421425292517</t>
+  </si>
+  <si>
+    <t>0.0891741812133626</t>
+  </si>
+  <si>
+    <t>-0.20154281376813</t>
+  </si>
+  <si>
+    <t>0.605299492733286</t>
+  </si>
+  <si>
+    <t>4.22602232395274</t>
+  </si>
+  <si>
+    <t>0.605299752525382</t>
+  </si>
+  <si>
+    <t>2.25095066846284</t>
+  </si>
+  <si>
+    <t>0.574973814910334</t>
+  </si>
+  <si>
+    <t>-48.1952095640887</t>
+  </si>
+  <si>
+    <t>0.613824240679503</t>
+  </si>
+  <si>
+    <t>90.675938041825</t>
+  </si>
+  <si>
+    <t>0.0764162044323031</t>
+  </si>
+  <si>
+    <t>-0.406628987660454</t>
+  </si>
+  <si>
+    <t>100.595471702095</t>
+  </si>
+  <si>
+    <t>0.408303648944085</t>
+  </si>
+  <si>
+    <t>-0.211198983909834</t>
+  </si>
+  <si>
+    <t>0.568241158573705</t>
+  </si>
+  <si>
+    <t>-0.958233105156796</t>
+  </si>
+  <si>
+    <t>0.029123388413588</t>
+  </si>
+  <si>
+    <t>39.6483975019236</t>
+  </si>
+  <si>
+    <t>0.164813988314332</t>
+  </si>
+  <si>
+    <t>-0.401795930477383</t>
+  </si>
+  <si>
+    <t>407.41062636579</t>
+  </si>
+  <si>
+    <t>0.176978814713967</t>
+  </si>
+  <si>
+    <t>-0.214870734988913</t>
+  </si>
+  <si>
+    <t>0.557748170386928</t>
+  </si>
+  <si>
+    <t>-0.959282742103744</t>
+  </si>
+  <si>
+    <t>0.0280279985009308</t>
+  </si>
+  <si>
+    <t>74.442254000003</t>
+  </si>
+  <si>
+    <t>0.494402097605997</t>
+  </si>
+  <si>
+    <t>-0.216361225995814</t>
+  </si>
+  <si>
+    <t>0.558673304425829</t>
+  </si>
+  <si>
+    <t>-0.959411858696405</t>
+  </si>
+  <si>
+    <t>0.0271455926553833</t>
   </si>
   <si>
     <t>0.605299816000229</t>
@@ -1202,241 +1202,241 @@
     <t>0.258720649168218</t>
   </si>
   <si>
-    <t>0.605300083589321</t>
-  </si>
-  <si>
-    <t>1.13598277643435</t>
-  </si>
-  <si>
-    <t>0.590403741519121</t>
-  </si>
-  <si>
-    <t>-7.06344097295614</t>
-  </si>
-  <si>
-    <t>0.992827019063285</t>
-  </si>
-  <si>
-    <t>800.798906607237</t>
-  </si>
-  <si>
-    <t>0.0076527082365827</t>
-  </si>
-  <si>
-    <t>-0.389167229421474</t>
-  </si>
-  <si>
-    <t>1510.73733653755</t>
-  </si>
-  <si>
-    <t>0.0953241904470871</t>
-  </si>
-  <si>
-    <t>-0.197404445193018</t>
-  </si>
-  <si>
-    <t>0.605299755199617</t>
-  </si>
-  <si>
-    <t>1.58246317641444</t>
-  </si>
-  <si>
-    <t>10.323484797222</t>
-  </si>
-  <si>
-    <t>7.79035140378958e-08</t>
-  </si>
-  <si>
-    <t>-5.5719036662969</t>
-  </si>
-  <si>
-    <t>591.679726981664</t>
-  </si>
-  <si>
-    <t>0.0104582325316612</t>
-  </si>
-  <si>
-    <t>-0.387478238205537</t>
-  </si>
-  <si>
-    <t>4425.11037705826</t>
-  </si>
-  <si>
-    <t>0.0545809394647143</t>
-  </si>
-  <si>
-    <t>-0.195211460453332</t>
-  </si>
-  <si>
-    <t>0.605299997252813</t>
-  </si>
-  <si>
-    <t>1.47918923717159</t>
-  </si>
-  <si>
-    <t>0.605299817004896</t>
-  </si>
-  <si>
-    <t>8.58258484319054</t>
-  </si>
-  <si>
-    <t>0.60529921757053</t>
-  </si>
-  <si>
-    <t>1.83266650298255</t>
-  </si>
-  <si>
-    <t>0.590409267089504</t>
-  </si>
-  <si>
-    <t>-8.94535742127336</t>
-  </si>
-  <si>
-    <t>1.11161367161012</t>
-  </si>
-  <si>
-    <t>109.689951288152</t>
-  </si>
-  <si>
-    <t>0.0596087845605783</t>
-  </si>
-  <si>
-    <t>-0.387783587849333</t>
-  </si>
-  <si>
-    <t>420.154432993871</t>
-  </si>
-  <si>
-    <t>0.171645863722739</t>
-  </si>
-  <si>
-    <t>-0.203238344130364</t>
-  </si>
-  <si>
-    <t>0.60529964476242</t>
-  </si>
-  <si>
-    <t>2.00484469410487</t>
-  </si>
-  <si>
-    <t>0.56326442326528</t>
-  </si>
-  <si>
-    <t>-0.957503310339758</t>
-  </si>
-  <si>
-    <t>0.0274749153946951</t>
-  </si>
-  <si>
-    <t>138.822236174329</t>
-  </si>
-  <si>
-    <t>0.0467596693376714</t>
-  </si>
-  <si>
-    <t>-0.390948878616778</t>
-  </si>
-  <si>
-    <t>4110.09967128712</t>
-  </si>
-  <si>
-    <t>0.0556253547265458</t>
-  </si>
-  <si>
-    <t>-0.197101642857284</t>
-  </si>
-  <si>
-    <t>0.605299860639765</t>
-  </si>
-  <si>
-    <t>6.38436915788344</t>
-  </si>
-  <si>
-    <t>0.605299829415422</t>
-  </si>
-  <si>
-    <t>2.09340909335738</t>
-  </si>
-  <si>
-    <t>0.571970417453047</t>
-  </si>
-  <si>
-    <t>-303.556279770989</t>
-  </si>
-  <si>
-    <t>0.923069617925766</t>
-  </si>
-  <si>
-    <t>126.382551914007</t>
-  </si>
-  <si>
-    <t>0.055244551307245</t>
-  </si>
-  <si>
-    <t>-0.402450815621022</t>
-  </si>
-  <si>
-    <t>101.337516718759</t>
-  </si>
-  <si>
-    <t>0.371942636172079</t>
-  </si>
-  <si>
-    <t>-0.21223153604754</t>
-  </si>
-  <si>
-    <t>0.563139794978261</t>
-  </si>
-  <si>
-    <t>-0.958521148972077</t>
-  </si>
-  <si>
-    <t>0.0286040956236628</t>
-  </si>
-  <si>
-    <t>55.7419053960006</t>
-  </si>
-  <si>
-    <t>0.126908312826154</t>
-  </si>
-  <si>
-    <t>-0.414712014518363</t>
-  </si>
-  <si>
-    <t>71.4649367187634</t>
-  </si>
-  <si>
-    <t>0.453531689027642</t>
-  </si>
-  <si>
-    <t>-0.211219307750822</t>
-  </si>
-  <si>
-    <t>0.556417362949673</t>
-  </si>
-  <si>
-    <t>-0.95864711291733</t>
-  </si>
-  <si>
-    <t>0.029619437943876</t>
-  </si>
-  <si>
-    <t>25.0849247429971</t>
-  </si>
-  <si>
-    <t>0.974565257983819</t>
-  </si>
-  <si>
-    <t>-0.226153211179079</t>
-  </si>
-  <si>
-    <t>0.586783009593451</t>
-  </si>
-  <si>
-    <t>-9.08923180700721</t>
-  </si>
-  <si>
-    <t>1.12117860731815</t>
+    <t>0.605299724209737</t>
+  </si>
+  <si>
+    <t>8.58195568732147</t>
+  </si>
+  <si>
+    <t>0.585257909068123</t>
+  </si>
+  <si>
+    <t>-7.63814814076418</t>
+  </si>
+  <si>
+    <t>1.03139134399696</t>
+  </si>
+  <si>
+    <t>878.968615921008</t>
+  </si>
+  <si>
+    <t>0.00778980446441563</t>
+  </si>
+  <si>
+    <t>-0.396585363427681</t>
+  </si>
+  <si>
+    <t>1166.07643602261</t>
+  </si>
+  <si>
+    <t>0.111415565958398</t>
+  </si>
+  <si>
+    <t>-0.197344273039503</t>
+  </si>
+  <si>
+    <t>0.605299986467265</t>
+  </si>
+  <si>
+    <t>1.55486136211571</t>
+  </si>
+  <si>
+    <t>10.4982945167042</t>
+  </si>
+  <si>
+    <t>5.96725534486809e-08</t>
+  </si>
+  <si>
+    <t>-5.61490510812019</t>
+  </si>
+  <si>
+    <t>1224.58929708059</t>
+  </si>
+  <si>
+    <t>0.00530630611737183</t>
+  </si>
+  <si>
+    <t>-0.389545554616923</t>
+  </si>
+  <si>
+    <t>2215.81278348325</t>
+  </si>
+  <si>
+    <t>0.0773350420125377</t>
+  </si>
+  <si>
+    <t>-0.19658937461845</t>
+  </si>
+  <si>
+    <t>0.605299724210505</t>
+  </si>
+  <si>
+    <t>8.58277045690963</t>
+  </si>
+  <si>
+    <t>0.605299481140252</t>
+  </si>
+  <si>
+    <t>8.58229287684122</t>
+  </si>
+  <si>
+    <t>0.605299777372104</t>
+  </si>
+  <si>
+    <t>2.62265362233062</t>
+  </si>
+  <si>
+    <t>0.585532453019271</t>
+  </si>
+  <si>
+    <t>-9.75181159891808</t>
+  </si>
+  <si>
+    <t>1.15572537840358</t>
+  </si>
+  <si>
+    <t>110.417862905477</t>
+  </si>
+  <si>
+    <t>0.0562751554707749</t>
+  </si>
+  <si>
+    <t>-0.389379511660318</t>
+  </si>
+  <si>
+    <t>286.67080574376</t>
+  </si>
+  <si>
+    <t>0.234625724149052</t>
+  </si>
+  <si>
+    <t>-0.201903694646346</t>
+  </si>
+  <si>
+    <t>0.605299746510241</t>
+  </si>
+  <si>
+    <t>2.90945585139301</t>
+  </si>
+  <si>
+    <t>0.550842163307631</t>
+  </si>
+  <si>
+    <t>-0.95830913686581</t>
+  </si>
+  <si>
+    <t>0.027155590425594</t>
+  </si>
+  <si>
+    <t>300.468528410202</t>
+  </si>
+  <si>
+    <t>0.0192189074038893</t>
+  </si>
+  <si>
+    <t>-0.386839968910588</t>
+  </si>
+  <si>
+    <t>1740.18455585376</t>
+  </si>
+  <si>
+    <t>0.0870057122913492</t>
+  </si>
+  <si>
+    <t>-0.197473996757421</t>
+  </si>
+  <si>
+    <t>0.60529998834454</t>
+  </si>
+  <si>
+    <t>1.42827502746158</t>
+  </si>
+  <si>
+    <t>0.605300041979281</t>
+  </si>
+  <si>
+    <t>1.78068079510692</t>
+  </si>
+  <si>
+    <t>0.56837807360094</t>
+  </si>
+  <si>
+    <t>-118.507524617512</t>
+  </si>
+  <si>
+    <t>0.780401734412093</t>
+  </si>
+  <si>
+    <t>71.789647037851</t>
+  </si>
+  <si>
+    <t>0.0863719035579041</t>
+  </si>
+  <si>
+    <t>-0.394389731568578</t>
+  </si>
+  <si>
+    <t>129.645678961588</t>
+  </si>
+  <si>
+    <t>0.278473039022872</t>
+  </si>
+  <si>
+    <t>-0.206681159797095</t>
+  </si>
+  <si>
+    <t>0.567346302278621</t>
+  </si>
+  <si>
+    <t>-0.959458578430201</t>
+  </si>
+  <si>
+    <t>0.0272688040749061</t>
+  </si>
+  <si>
+    <t>25.8142114804938</t>
+  </si>
+  <si>
+    <t>0.273275760431336</t>
+  </si>
+  <si>
+    <t>-0.402733105116508</t>
+  </si>
+  <si>
+    <t>50.817416471155</t>
+  </si>
+  <si>
+    <t>0.612188497954371</t>
+  </si>
+  <si>
+    <t>-0.220301243766961</t>
+  </si>
+  <si>
+    <t>0.566142138690687</t>
+  </si>
+  <si>
+    <t>-0.958571204353092</t>
+  </si>
+  <si>
+    <t>0.0271859372162279</t>
+  </si>
+  <si>
+    <t>46.8815338307799</t>
+  </si>
+  <si>
+    <t>0.623905866770237</t>
+  </si>
+  <si>
+    <t>-0.21417551925907</t>
+  </si>
+  <si>
+    <t>0.597499014285459</t>
+  </si>
+  <si>
+    <t>-9.45840530418337</t>
+  </si>
+  <si>
+    <t>1.13852011417964</t>
   </si>
   <si>
     <t>0.605299853360164</t>
@@ -1448,250 +1448,250 @@
     <t>0.248757016154441</t>
   </si>
   <si>
-    <t>0.709674906360326</t>
-  </si>
-  <si>
-    <t>1.88764936612145</t>
-  </si>
-  <si>
-    <t>0.0704331643379726</t>
-  </si>
-  <si>
-    <t>0.605299790088827</t>
-  </si>
-  <si>
-    <t>3.0428619504584</t>
-  </si>
-  <si>
-    <t>0.568107863660466</t>
-  </si>
-  <si>
-    <t>-0.957881177951891</t>
-  </si>
-  <si>
-    <t>0.0270396949439029</t>
-  </si>
-  <si>
-    <t>816.02840499511</t>
-  </si>
-  <si>
-    <t>0.00753165368999982</t>
-  </si>
-  <si>
-    <t>-0.385118451245267</t>
-  </si>
-  <si>
-    <t>1358.77591406499</t>
-  </si>
-  <si>
-    <t>0.0987075832608952</t>
-  </si>
-  <si>
-    <t>-0.195264800645009</t>
-  </si>
-  <si>
-    <t>0.605299444351507</t>
-  </si>
-  <si>
-    <t>0.985058422307078</t>
-  </si>
-  <si>
-    <t>0.117260418359019</t>
-  </si>
-  <si>
-    <t>-0.00329634067812557</t>
-  </si>
-  <si>
-    <t>-0.193183822496473</t>
-  </si>
-  <si>
-    <t>891.951462325123</t>
-  </si>
-  <si>
-    <t>0.0075804944986395</t>
-  </si>
-  <si>
-    <t>-0.38186850856636</t>
-  </si>
-  <si>
-    <t>5048.14460840884</t>
-  </si>
-  <si>
-    <t>0.0509320282775269</t>
-  </si>
-  <si>
-    <t>-0.194877844925143</t>
-  </si>
-  <si>
-    <t>0.605299687306762</t>
-  </si>
-  <si>
-    <t>2.98975831143367</t>
-  </si>
-  <si>
-    <t>0.605300088612124</t>
-  </si>
-  <si>
-    <t>1.71983075110842</t>
-  </si>
-  <si>
-    <t>0.605299622678059</t>
-  </si>
-  <si>
-    <t>3.22075346393753</t>
-  </si>
-  <si>
-    <t>0.557210312666907</t>
-  </si>
-  <si>
-    <t>-0.956127963326241</t>
-  </si>
-  <si>
-    <t>0.0268584241845107</t>
-  </si>
-  <si>
-    <t>-11.690472124242</t>
-  </si>
-  <si>
-    <t>-0.479231501543854</t>
-  </si>
-  <si>
-    <t>-0.355361311665725</t>
-  </si>
-  <si>
-    <t>319.710509534926</t>
-  </si>
-  <si>
-    <t>0.214003705584368</t>
-  </si>
-  <si>
-    <t>-0.200855130607413</t>
-  </si>
-  <si>
-    <t>0.699815611944352</t>
-  </si>
-  <si>
-    <t>1.9699591419934</t>
-  </si>
-  <si>
-    <t>0.0773508271665553</t>
-  </si>
-  <si>
-    <t>0.605299796789569</t>
-  </si>
-  <si>
-    <t>7.19968254288182</t>
-  </si>
-  <si>
-    <t>0.555574466554318</t>
-  </si>
-  <si>
-    <t>-0.959302525852523</t>
-  </si>
-  <si>
-    <t>0.0293040458554532</t>
-  </si>
-  <si>
-    <t>133.627686688291</t>
-  </si>
-  <si>
-    <t>0.0527872510021743</t>
-  </si>
-  <si>
-    <t>-0.398275437739711</t>
-  </si>
-  <si>
-    <t>468.998821198523</t>
-  </si>
-  <si>
-    <t>0.17832031931962</t>
-  </si>
-  <si>
-    <t>-0.199818814817614</t>
-  </si>
-  <si>
-    <t>0.605300041627291</t>
-  </si>
-  <si>
-    <t>7.19864221717855</t>
-  </si>
-  <si>
-    <t>0.605299902066624</t>
-  </si>
-  <si>
-    <t>1.27270793472197</t>
-  </si>
-  <si>
-    <t>0.562601107765331</t>
-  </si>
-  <si>
-    <t>-0.95534841178328</t>
-  </si>
-  <si>
-    <t>0.0281236837482082</t>
-  </si>
-  <si>
-    <t>-18.2032641158188</t>
-  </si>
-  <si>
-    <t>-0.30595387888626</t>
-  </si>
-  <si>
-    <t>-0.35946215619579</t>
-  </si>
-  <si>
-    <t>59.3769133478904</t>
-  </si>
-  <si>
-    <t>0.531680082566249</t>
-  </si>
-  <si>
-    <t>-0.220229181733251</t>
-  </si>
-  <si>
-    <t>0.552150174358694</t>
-  </si>
-  <si>
-    <t>-0.959391404210208</t>
-  </si>
-  <si>
-    <t>0.0271481602070377</t>
-  </si>
-  <si>
-    <t>42.4616068098277</t>
-  </si>
-  <si>
-    <t>0.16581911538416</t>
-  </si>
-  <si>
-    <t>-0.407735891777796</t>
-  </si>
-  <si>
-    <t>49.5038489109818</t>
-  </si>
-  <si>
-    <t>0.59226625524753</t>
-  </si>
-  <si>
-    <t>-0.213868779252687</t>
-  </si>
-  <si>
-    <t>0.565904156305273</t>
-  </si>
-  <si>
-    <t>-0.957722173376765</t>
-  </si>
-  <si>
-    <t>0.0280247812887916</t>
-  </si>
-  <si>
-    <t>37.7856080863053</t>
-  </si>
-  <si>
-    <t>0.187906021987285</t>
-  </si>
-  <si>
-    <t>-0.402498429907065</t>
+    <t>0.694828029142902</t>
+  </si>
+  <si>
+    <t>2.06470838394188</t>
+  </si>
+  <si>
+    <t>0.102644637973456</t>
+  </si>
+  <si>
+    <t>0.60530005627046</t>
+  </si>
+  <si>
+    <t>8.56283827604554</t>
+  </si>
+  <si>
+    <t>0.562174644384768</t>
+  </si>
+  <si>
+    <t>-0.956883329292115</t>
+  </si>
+  <si>
+    <t>0.0283019969640462</t>
+  </si>
+  <si>
+    <t>964.527807255193</t>
+  </si>
+  <si>
+    <t>0.00606249455601263</t>
+  </si>
+  <si>
+    <t>-0.389206119229096</t>
+  </si>
+  <si>
+    <t>2668.09357473505</t>
+  </si>
+  <si>
+    <t>0.0728721909036708</t>
+  </si>
+  <si>
+    <t>-0.19745386413267</t>
+  </si>
+  <si>
+    <t>0.605299596055553</t>
+  </si>
+  <si>
+    <t>8.56383385469693</t>
+  </si>
+  <si>
+    <t>0.0938691608861742</t>
+  </si>
+  <si>
+    <t>-0.0252376450172354</t>
+  </si>
+  <si>
+    <t>-0.124957086670729</t>
+  </si>
+  <si>
+    <t>1281.93674342397</t>
+  </si>
+  <si>
+    <t>0.0046529445099785</t>
+  </si>
+  <si>
+    <t>-0.390116417117712</t>
+  </si>
+  <si>
+    <t>3060.60663276783</t>
+  </si>
+  <si>
+    <t>0.0680846568064674</t>
+  </si>
+  <si>
+    <t>-0.193493545211727</t>
+  </si>
+  <si>
+    <t>0.605299852865531</t>
+  </si>
+  <si>
+    <t>2.37416917018796</t>
+  </si>
+  <si>
+    <t>0.605300002260948</t>
+  </si>
+  <si>
+    <t>8.56513580316842</t>
+  </si>
+  <si>
+    <t>0.605299786380032</t>
+  </si>
+  <si>
+    <t>3.01681269560387</t>
+  </si>
+  <si>
+    <t>0.557013896370451</t>
+  </si>
+  <si>
+    <t>-0.95651203907556</t>
+  </si>
+  <si>
+    <t>0.028476410118606</t>
+  </si>
+  <si>
+    <t>-21.8626639352544</t>
+  </si>
+  <si>
+    <t>-0.248799696653957</t>
+  </si>
+  <si>
+    <t>-0.368971864731978</t>
+  </si>
+  <si>
+    <t>3212.65310052816</t>
+  </si>
+  <si>
+    <t>0.0631892172179935</t>
+  </si>
+  <si>
+    <t>-0.199015253665582</t>
+  </si>
+  <si>
+    <t>0.678295128264076</t>
+  </si>
+  <si>
+    <t>2.14754421283191</t>
+  </si>
+  <si>
+    <t>0.155411401883757</t>
+  </si>
+  <si>
+    <t>0.605299786379813</t>
+  </si>
+  <si>
+    <t>7.19600651942723</t>
+  </si>
+  <si>
+    <t>0.56891982751226</t>
+  </si>
+  <si>
+    <t>-0.958156380836837</t>
+  </si>
+  <si>
+    <t>0.029498492618202</t>
+  </si>
+  <si>
+    <t>110.763484534475</t>
+  </si>
+  <si>
+    <t>0.0569567240964123</t>
+  </si>
+  <si>
+    <t>-0.393070023169755</t>
+  </si>
+  <si>
+    <t>245.815631925997</t>
+  </si>
+  <si>
+    <t>0.234999069198982</t>
+  </si>
+  <si>
+    <t>-0.197824549187396</t>
+  </si>
+  <si>
+    <t>0.605299859730562</t>
+  </si>
+  <si>
+    <t>7.19991530399965</t>
+  </si>
+  <si>
+    <t>0.60529984922457</t>
+  </si>
+  <si>
+    <t>2.12230131000902</t>
+  </si>
+  <si>
+    <t>0.554650690955347</t>
+  </si>
+  <si>
+    <t>-0.958971299442893</t>
+  </si>
+  <si>
+    <t>0.0283539126429228</t>
+  </si>
+  <si>
+    <t>-12.5954611551298</t>
+  </si>
+  <si>
+    <t>-0.410748907696626</t>
+  </si>
+  <si>
+    <t>-0.344550722493848</t>
+  </si>
+  <si>
+    <t>61.2171023781918</t>
+  </si>
+  <si>
+    <t>0.55797560192303</t>
+  </si>
+  <si>
+    <t>-0.218962963196077</t>
+  </si>
+  <si>
+    <t>0.56285172080169</t>
+  </si>
+  <si>
+    <t>-0.959312456615223</t>
+  </si>
+  <si>
+    <t>0.0287081421350849</t>
+  </si>
+  <si>
+    <t>31.2703629814451</t>
+  </si>
+  <si>
+    <t>0.257599380214016</t>
+  </si>
+  <si>
+    <t>-0.40863344093642</t>
+  </si>
+  <si>
+    <t>62.730045632968</t>
+  </si>
+  <si>
+    <t>0.475580842684425</t>
+  </si>
+  <si>
+    <t>-0.210145304417555</t>
+  </si>
+  <si>
+    <t>0.546723637155011</t>
+  </si>
+  <si>
+    <t>-0.958164293625638</t>
+  </si>
+  <si>
+    <t>0.0274073951655756</t>
+  </si>
+  <si>
+    <t>140.205741075784</t>
+  </si>
+  <si>
+    <t>0.0490638807936823</t>
+  </si>
+  <si>
+    <t>-0.401676792680412</t>
   </si>
   <si>
     <t>0.605299853653996</t>
@@ -1703,1579 +1703,1585 @@
     <t>0.242809716575191</t>
   </si>
   <si>
-    <t>0.561802959346872</t>
-  </si>
-  <si>
-    <t>-0.958426369787774</t>
-  </si>
-  <si>
-    <t>0.0291245495731557</t>
-  </si>
-  <si>
-    <t>27.6728404825709</t>
-  </si>
-  <si>
-    <t>0.827829049256999</t>
-  </si>
-  <si>
-    <t>-0.223241745774926</t>
+    <t>0.557537720460101</t>
+  </si>
+  <si>
+    <t>-0.956015365327078</t>
+  </si>
+  <si>
+    <t>0.0270538163426101</t>
+  </si>
+  <si>
+    <t>38.3592277222114</t>
+  </si>
+  <si>
+    <t>0.686447007333768</t>
+  </si>
+  <si>
+    <t>-0.215602724750985</t>
   </si>
   <si>
     <t>value of A = 100.000000</t>
   </si>
   <si>
-    <t>0.513958675225189</t>
-  </si>
-  <si>
-    <t>0.0359573880231582</t>
-  </si>
-  <si>
-    <t>-7.83389298051407</t>
-  </si>
-  <si>
-    <t>-6.03818456225397</t>
-  </si>
-  <si>
-    <t>-0.00120219484660864</t>
-  </si>
-  <si>
-    <t>75.1791221965607</t>
-  </si>
-  <si>
-    <t>0.00176397046036126</t>
-  </si>
-  <si>
-    <t>-0.452059159213522</t>
-  </si>
-  <si>
-    <t>288.242599930225</t>
-  </si>
-  <si>
-    <t>0.0205803960023245</t>
-  </si>
-  <si>
-    <t>-0.223597754409039</t>
-  </si>
-  <si>
-    <t>0.505355483264251</t>
-  </si>
-  <si>
-    <t>0.0252416810752597</t>
-  </si>
-  <si>
-    <t>9.31966107729252</t>
-  </si>
-  <si>
-    <t>2.36094184284919e-10</t>
-  </si>
-  <si>
-    <t>-6.62250866502845</t>
-  </si>
-  <si>
-    <t>63.829327010644</t>
-  </si>
-  <si>
-    <t>0.00210809203461428</t>
-  </si>
-  <si>
-    <t>-0.455131500436201</t>
-  </si>
-  <si>
-    <t>238.369928582608</t>
-  </si>
-  <si>
-    <t>0.0213832791463105</t>
-  </si>
-  <si>
-    <t>-0.226650621660534</t>
-  </si>
-  <si>
-    <t>0.509116349324005</t>
-  </si>
-  <si>
-    <t>0.0146325213376417</t>
-  </si>
-  <si>
-    <t>0.506183458460332</t>
-  </si>
-  <si>
-    <t>0.0523744341553646</t>
-  </si>
-  <si>
-    <t>0.520768291427526</t>
-  </si>
-  <si>
-    <t>0.0329938955406914</t>
-  </si>
-  <si>
-    <t>0.471633620245912</t>
-  </si>
-  <si>
-    <t>-0.986463973282076</t>
-  </si>
-  <si>
-    <t>0.0164045240335105</t>
-  </si>
-  <si>
-    <t>8.95191506370309</t>
-  </si>
-  <si>
-    <t>0.00461426144724094</t>
-  </si>
-  <si>
-    <t>-0.501661150078905</t>
-  </si>
-  <si>
-    <t>40.8093829434557</t>
-  </si>
-  <si>
-    <t>0.0292703632667569</t>
-  </si>
-  <si>
-    <t>-0.246941178958564</t>
-  </si>
-  <si>
-    <t>0.63427214616229</t>
-  </si>
-  <si>
-    <t>0.45462309544503</t>
-  </si>
-  <si>
-    <t>0.000151012676307761</t>
-  </si>
-  <si>
-    <t>0.502746988225883</t>
-  </si>
-  <si>
-    <t>0.0404771339462778</t>
-  </si>
-  <si>
-    <t>-1.40335256935997</t>
-  </si>
-  <si>
-    <t>-1.82621981917558</t>
-  </si>
-  <si>
-    <t>-0.00103364540203306</t>
-  </si>
-  <si>
-    <t>13.8728855539008</t>
-  </si>
-  <si>
-    <t>0.00275674678062317</t>
-  </si>
-  <si>
-    <t>-0.526130097484461</t>
-  </si>
-  <si>
-    <t>18.6610656999074</t>
-  </si>
-  <si>
-    <t>0.0395126354487305</t>
-  </si>
-  <si>
-    <t>-0.244476542190587</t>
-  </si>
-  <si>
-    <t>0.528136921867121</t>
-  </si>
-  <si>
-    <t>0.0129276179878255</t>
-  </si>
-  <si>
-    <t>0.532599610575884</t>
-  </si>
-  <si>
-    <t>0.0120232479397483</t>
-  </si>
-  <si>
-    <t>0.475380099502284</t>
-  </si>
-  <si>
-    <t>-4339.9734249856</t>
-  </si>
-  <si>
-    <t>0.279016089399957</t>
-  </si>
-  <si>
-    <t>5.27999714346199</t>
-  </si>
-  <si>
-    <t>0.00532371834763939</t>
-  </si>
-  <si>
-    <t>-0.583806033243914</t>
-  </si>
-  <si>
-    <t>7.12543766104271</t>
-  </si>
-  <si>
-    <t>0.0478747865573165</t>
-  </si>
-  <si>
-    <t>-0.299068374850494</t>
-  </si>
-  <si>
-    <t>0.463771319838572</t>
-  </si>
-  <si>
-    <t>-0.983539938148711</t>
-  </si>
-  <si>
-    <t>0.0136146343349438</t>
-  </si>
-  <si>
-    <t>5.03266902223341</t>
-  </si>
-  <si>
-    <t>0.00456174206719838</t>
-  </si>
-  <si>
-    <t>-0.535454542662291</t>
-  </si>
-  <si>
-    <t>5.27736895992764</t>
-  </si>
-  <si>
-    <t>0.0550324670723451</t>
-  </si>
-  <si>
-    <t>-0.336847578373792</t>
-  </si>
-  <si>
-    <t>0.464256807507568</t>
-  </si>
-  <si>
-    <t>-0.988470432218929</t>
-  </si>
-  <si>
-    <t>0.0125156911140544</t>
-  </si>
-  <si>
-    <t>5.69923803678739</t>
-  </si>
-  <si>
-    <t>0.0586137508647938</t>
-  </si>
-  <si>
-    <t>-0.350844692821961</t>
-  </si>
-  <si>
-    <t>0.467701356793814</t>
-  </si>
-  <si>
-    <t>-0.986950515601941</t>
-  </si>
-  <si>
-    <t>0.0146530964720532</t>
-  </si>
-  <si>
-    <t>0.605299791290805</t>
-  </si>
-  <si>
-    <t>15.4848728634094</t>
-  </si>
-  <si>
-    <t>-0.113497692651744</t>
+    <t>0.521883462596055</t>
+  </si>
+  <si>
+    <t>0.0411694916303692</t>
+  </si>
+  <si>
+    <t>-1.82473928026686</t>
+  </si>
+  <si>
+    <t>-2.10896371486784</t>
+  </si>
+  <si>
+    <t>-0.00120350014320369</t>
+  </si>
+  <si>
+    <t>64.6106766748204</t>
+  </si>
+  <si>
+    <t>0.00185966010967343</t>
+  </si>
+  <si>
+    <t>-0.460671208732063</t>
+  </si>
+  <si>
+    <t>263.101101692491</t>
+  </si>
+  <si>
+    <t>0.0226575660385137</t>
+  </si>
+  <si>
+    <t>-0.229035924313194</t>
+  </si>
+  <si>
+    <t>0.528729414676027</t>
+  </si>
+  <si>
+    <t>0.0461999059250719</t>
+  </si>
+  <si>
+    <t>9.52402545648751</t>
+  </si>
+  <si>
+    <t>-4.51437829169986e-08</t>
+  </si>
+  <si>
+    <t>-6.53739706296556</t>
+  </si>
+  <si>
+    <t>140.373320628488</t>
+  </si>
+  <si>
+    <t>0.00126450159558043</t>
+  </si>
+  <si>
+    <t>-0.44647320954099</t>
+  </si>
+  <si>
+    <t>310.611008279124</t>
+  </si>
+  <si>
+    <t>0.0178789415298568</t>
+  </si>
+  <si>
+    <t>-0.250574999148437</t>
+  </si>
+  <si>
+    <t>0.523784126228556</t>
+  </si>
+  <si>
+    <t>0.0210718655866228</t>
+  </si>
+  <si>
+    <t>0.540358379546944</t>
+  </si>
+  <si>
+    <t>0.0172950085724605</t>
+  </si>
+  <si>
+    <t>0.542035796363895</t>
+  </si>
+  <si>
+    <t>0.0244916923865062</t>
+  </si>
+  <si>
+    <t>0.451309824107012</t>
+  </si>
+  <si>
+    <t>-0.978681484911695</t>
+  </si>
+  <si>
+    <t>0.0156467558385756</t>
+  </si>
+  <si>
+    <t>10.1654940092841</t>
+  </si>
+  <si>
+    <t>0.00346245649198958</t>
+  </si>
+  <si>
+    <t>-0.473382572216223</t>
+  </si>
+  <si>
+    <t>20.5112664734331</t>
+  </si>
+  <si>
+    <t>0.0232925176835692</t>
+  </si>
+  <si>
+    <t>-0.256202756694004</t>
+  </si>
+  <si>
+    <t>0.58641970506025</t>
+  </si>
+  <si>
+    <t>0.4994326208471</t>
+  </si>
+  <si>
+    <t>0.000237303808945015</t>
+  </si>
+  <si>
+    <t>0.519669667834943</t>
+  </si>
+  <si>
+    <t>0.0182518402158588</t>
+  </si>
+  <si>
+    <t>-2.20372621815623</t>
+  </si>
+  <si>
+    <t>-2.14955672828402</t>
+  </si>
+  <si>
+    <t>-0.00138659895801244</t>
+  </si>
+  <si>
+    <t>13.1852036632206</t>
+  </si>
+  <si>
+    <t>0.00376187351608027</t>
+  </si>
+  <si>
+    <t>-0.470125538047547</t>
+  </si>
+  <si>
+    <t>14.2220926023918</t>
+  </si>
+  <si>
+    <t>0.0292317825582632</t>
+  </si>
+  <si>
+    <t>-0.266043792172389</t>
+  </si>
+  <si>
+    <t>0.531538270848522</t>
+  </si>
+  <si>
+    <t>0.0402139154677094</t>
+  </si>
+  <si>
+    <t>0.536478712275366</t>
+  </si>
+  <si>
+    <t>0.0263707208200632</t>
+  </si>
+  <si>
+    <t>0.496341051290807</t>
+  </si>
+  <si>
+    <t>-6180.22026058463</t>
+  </si>
+  <si>
+    <t>0.327339439758812</t>
+  </si>
+  <si>
+    <t>5.50680726516307</t>
+  </si>
+  <si>
+    <t>0.00394208646801455</t>
+  </si>
+  <si>
+    <t>-0.537402215053662</t>
+  </si>
+  <si>
+    <t>6.95894283677074</t>
+  </si>
+  <si>
+    <t>0.0508395232286569</t>
+  </si>
+  <si>
+    <t>-0.314442160464993</t>
+  </si>
+  <si>
+    <t>0.476896039243598</t>
+  </si>
+  <si>
+    <t>-0.9969085433617</t>
+  </si>
+  <si>
+    <t>0.0158841087940235</t>
+  </si>
+  <si>
+    <t>5.07219131958059</t>
+  </si>
+  <si>
+    <t>0.00557646782217094</t>
+  </si>
+  <si>
+    <t>-0.526628297701038</t>
+  </si>
+  <si>
+    <t>6.71583931666779</t>
+  </si>
+  <si>
+    <t>0.0564135570216968</t>
+  </si>
+  <si>
+    <t>-0.294693631200509</t>
+  </si>
+  <si>
+    <t>0.483923976707721</t>
+  </si>
+  <si>
+    <t>-0.987148966743352</t>
+  </si>
+  <si>
+    <t>0.0155417111636877</t>
+  </si>
+  <si>
+    <t>5.51956103859093</t>
+  </si>
+  <si>
+    <t>0.0737347779657729</t>
+  </si>
+  <si>
+    <t>-0.329345852735305</t>
+  </si>
+  <si>
+    <t>0.477073648608946</t>
+  </si>
+  <si>
+    <t>-0.988915607098913</t>
+  </si>
+  <si>
+    <t>0.0162866109589282</t>
+  </si>
+  <si>
+    <t>0.605299734678344</t>
+  </si>
+  <si>
+    <t>15.4880733174292</t>
+  </si>
+  <si>
+    <t>-0.111454418741426</t>
   </si>
   <si>
     <t>value of A = 150.000000</t>
   </si>
   <si>
-    <t>0.518533335587997</t>
-  </si>
-  <si>
-    <t>0.0105669855608511</t>
-  </si>
-  <si>
-    <t>0.516002613327904</t>
-  </si>
-  <si>
-    <t>-16.6279219881247</t>
-  </si>
-  <si>
-    <t>0.261288200717664</t>
-  </si>
-  <si>
-    <t>44.4554736698006</t>
-  </si>
-  <si>
-    <t>0.00187040728887761</t>
-  </si>
-  <si>
-    <t>-0.438701387449058</t>
-  </si>
-  <si>
-    <t>265.757268867075</t>
-  </si>
-  <si>
-    <t>0.0190165830107923</t>
-  </si>
-  <si>
-    <t>-0.236220544391172</t>
-  </si>
-  <si>
-    <t>0.499624661812018</t>
-  </si>
-  <si>
-    <t>0.034247498280988</t>
-  </si>
-  <si>
-    <t>9.99872686206652</t>
-  </si>
-  <si>
-    <t>1.24825997666515e-10</t>
-  </si>
-  <si>
-    <t>-7.67264113211775</t>
-  </si>
-  <si>
-    <t>88.0790672028002</t>
-  </si>
-  <si>
-    <t>0.00159742574365051</t>
-  </si>
-  <si>
-    <t>-0.46231338884297</t>
-  </si>
-  <si>
-    <t>326.031614056978</t>
-  </si>
-  <si>
-    <t>0.0160692148781225</t>
-  </si>
-  <si>
-    <t>-0.226480768995902</t>
-  </si>
-  <si>
-    <t>0.524026410423508</t>
-  </si>
-  <si>
-    <t>0.0103706197898078</t>
-  </si>
-  <si>
-    <t>0.510646114200054</t>
-  </si>
-  <si>
-    <t>0.0370840237364569</t>
-  </si>
-  <si>
-    <t>0.514347120855459</t>
-  </si>
-  <si>
-    <t>0.0154715464449012</t>
-  </si>
-  <si>
-    <t>0.524081184844943</t>
-  </si>
-  <si>
-    <t>-19.243137952056</t>
-  </si>
-  <si>
-    <t>0.288252973690975</t>
-  </si>
-  <si>
-    <t>19.3808037282585</t>
-  </si>
-  <si>
-    <t>0.00454378005017695</t>
-  </si>
-  <si>
-    <t>-0.456672944821615</t>
-  </si>
-  <si>
-    <t>52.0411851219202</t>
-  </si>
-  <si>
-    <t>0.0253927382018711</t>
-  </si>
-  <si>
-    <t>-0.241555016788479</t>
-  </si>
-  <si>
-    <t>0.533288324217606</t>
-  </si>
-  <si>
-    <t>0.0260778584471396</t>
-  </si>
-  <si>
-    <t>0.469513030373203</t>
-  </si>
-  <si>
-    <t>-0.991130465974809</t>
-  </si>
-  <si>
-    <t>0.0164932551196581</t>
-  </si>
-  <si>
-    <t>15.3932335692943</t>
-  </si>
-  <si>
-    <t>0.00313189925727088</t>
-  </si>
-  <si>
-    <t>-0.469999538446297</t>
-  </si>
-  <si>
-    <t>71.0662090431516</t>
-  </si>
-  <si>
-    <t>0.0222779396580103</t>
-  </si>
-  <si>
-    <t>-0.241776516863584</t>
-  </si>
-  <si>
-    <t>0.510777467313389</t>
-  </si>
-  <si>
-    <t>0.0314934809053945</t>
-  </si>
-  <si>
-    <t>0.518734457131921</t>
-  </si>
-  <si>
-    <t>0.0217009036479065</t>
-  </si>
-  <si>
-    <t>0.489603349092404</t>
-  </si>
-  <si>
-    <t>-574563.46711953</t>
-  </si>
-  <si>
-    <t>0.408598119296298</t>
-  </si>
-  <si>
-    <t>6.08549809363994</t>
-  </si>
-  <si>
-    <t>0.00495408368438694</t>
-  </si>
-  <si>
-    <t>-0.525605963093868</t>
-  </si>
-  <si>
-    <t>7.16868732887621</t>
-  </si>
-  <si>
-    <t>0.0392283468456654</t>
-  </si>
-  <si>
-    <t>-0.283862022140382</t>
-  </si>
-  <si>
-    <t>0.478772263368771</t>
-  </si>
-  <si>
-    <t>-0.996380302603098</t>
-  </si>
-  <si>
-    <t>0.0171189377174853</t>
-  </si>
-  <si>
-    <t>4.57853847531096</t>
-  </si>
-  <si>
-    <t>0.00593297217286132</t>
-  </si>
-  <si>
-    <t>-0.547021851808023</t>
-  </si>
-  <si>
-    <t>5.16683784844631</t>
-  </si>
-  <si>
-    <t>0.0489257128067235</t>
-  </si>
-  <si>
-    <t>-0.315020035071886</t>
-  </si>
-  <si>
-    <t>0.481489802994809</t>
-  </si>
-  <si>
-    <t>-1.01304832715548</t>
-  </si>
-  <si>
-    <t>0.0148636519425174</t>
-  </si>
-  <si>
-    <t>5.90048743112608</t>
-  </si>
-  <si>
-    <t>0.0598722495249666</t>
-  </si>
-  <si>
-    <t>-0.314031877259888</t>
-  </si>
-  <si>
-    <t>0.514262741828572</t>
-  </si>
-  <si>
-    <t>-19.1518074225248</t>
-  </si>
-  <si>
-    <t>0.359760609580847</t>
-  </si>
-  <si>
-    <t>0.60529976302579</t>
-  </si>
-  <si>
-    <t>15.5877576084299</t>
-  </si>
-  <si>
-    <t>-0.0232809947738713</t>
-  </si>
-  <si>
-    <t>0.575249811660625</t>
-  </si>
-  <si>
-    <t>0.569988602846859</t>
-  </si>
-  <si>
-    <t>0.000235615084294363</t>
+    <t>0.525149526175453</t>
+  </si>
+  <si>
+    <t>0.0194083007411932</t>
+  </si>
+  <si>
+    <t>0.49658847074588</t>
+  </si>
+  <si>
+    <t>-20.3192707588867</t>
+  </si>
+  <si>
+    <t>0.320163415518669</t>
+  </si>
+  <si>
+    <t>89.8614481891677</t>
+  </si>
+  <si>
+    <t>0.0018553850063039</t>
+  </si>
+  <si>
+    <t>-0.450679706153792</t>
+  </si>
+  <si>
+    <t>255.769583562897</t>
+  </si>
+  <si>
+    <t>0.0240424636255935</t>
+  </si>
+  <si>
+    <t>-0.220242809250615</t>
+  </si>
+  <si>
+    <t>0.531829436580563</t>
+  </si>
+  <si>
+    <t>0.0195618215833371</t>
+  </si>
+  <si>
+    <t>9.85737384528628</t>
+  </si>
+  <si>
+    <t>7.71078779049741e-11</t>
+  </si>
+  <si>
+    <t>-7.6470813427871</t>
+  </si>
+  <si>
+    <t>86.1781624134145</t>
+  </si>
+  <si>
+    <t>0.00152676052807712</t>
+  </si>
+  <si>
+    <t>-0.459744545117978</t>
+  </si>
+  <si>
+    <t>299.559647928976</t>
+  </si>
+  <si>
+    <t>0.0207479076695957</t>
+  </si>
+  <si>
+    <t>-0.222333307271168</t>
+  </si>
+  <si>
+    <t>0.538071302172845</t>
+  </si>
+  <si>
+    <t>0.0367479270794865</t>
+  </si>
+  <si>
+    <t>0.524883472264564</t>
+  </si>
+  <si>
+    <t>0.034131427564028</t>
+  </si>
+  <si>
+    <t>0.531869355237675</t>
+  </si>
+  <si>
+    <t>0.0284741581997561</t>
+  </si>
+  <si>
+    <t>0.493929511011095</t>
+  </si>
+  <si>
+    <t>-21.0354479444336</t>
+  </si>
+  <si>
+    <t>0.40691566138236</t>
+  </si>
+  <si>
+    <t>17.7310168625031</t>
+  </si>
+  <si>
+    <t>0.00375064214069589</t>
+  </si>
+  <si>
+    <t>-0.438279691489912</t>
+  </si>
+  <si>
+    <t>51.0591797469687</t>
+  </si>
+  <si>
+    <t>0.037461295723775</t>
+  </si>
+  <si>
+    <t>-0.239987797627264</t>
+  </si>
+  <si>
+    <t>0.533945174001454</t>
+  </si>
+  <si>
+    <t>0.0192919829699896</t>
+  </si>
+  <si>
+    <t>0.468207896707445</t>
+  </si>
+  <si>
+    <t>-0.995458671343944</t>
+  </si>
+  <si>
+    <t>0.0133702292416763</t>
+  </si>
+  <si>
+    <t>19.0500254778782</t>
+  </si>
+  <si>
+    <t>0.0039176942268221</t>
+  </si>
+  <si>
+    <t>-0.444642951374555</t>
+  </si>
+  <si>
+    <t>59.3101544870748</t>
+  </si>
+  <si>
+    <t>0.0270194965221913</t>
+  </si>
+  <si>
+    <t>-0.228659643877582</t>
+  </si>
+  <si>
+    <t>0.532312269113458</t>
+  </si>
+  <si>
+    <t>0.0212490901111976</t>
+  </si>
+  <si>
+    <t>0.523723974178809</t>
+  </si>
+  <si>
+    <t>0.0254304974573631</t>
+  </si>
+  <si>
+    <t>0.494707483884924</t>
+  </si>
+  <si>
+    <t>-260845.508538689</t>
+  </si>
+  <si>
+    <t>0.312482290454126</t>
+  </si>
+  <si>
+    <t>7.5602426830441</t>
+  </si>
+  <si>
+    <t>0.00552034648704727</t>
+  </si>
+  <si>
+    <t>-0.488091341689235</t>
+  </si>
+  <si>
+    <t>6.54486389523001</t>
+  </si>
+  <si>
+    <t>0.0431037838145517</t>
+  </si>
+  <si>
+    <t>-0.315757901284328</t>
+  </si>
+  <si>
+    <t>0.470517492585122</t>
+  </si>
+  <si>
+    <t>-0.99659172443396</t>
+  </si>
+  <si>
+    <t>0.0143084056073621</t>
+  </si>
+  <si>
+    <t>4.87371540037886</t>
+  </si>
+  <si>
+    <t>0.0090485852176852</t>
+  </si>
+  <si>
+    <t>-0.528411495770826</t>
+  </si>
+  <si>
+    <t>4.77910854034312</t>
+  </si>
+  <si>
+    <t>0.0504627889118022</t>
+  </si>
+  <si>
+    <t>-0.328135550682851</t>
+  </si>
+  <si>
+    <t>0.458532380354666</t>
+  </si>
+  <si>
+    <t>-0.997120408141239</t>
+  </si>
+  <si>
+    <t>0.0147994063538973</t>
+  </si>
+  <si>
+    <t>5.74735136486061</t>
+  </si>
+  <si>
+    <t>0.0661933166204248</t>
+  </si>
+  <si>
+    <t>-0.331589189477341</t>
+  </si>
+  <si>
+    <t>0.519324235647155</t>
+  </si>
+  <si>
+    <t>-22.5281419742515</t>
+  </si>
+  <si>
+    <t>0.392654311047373</t>
+  </si>
+  <si>
+    <t>0.605299722690421</t>
+  </si>
+  <si>
+    <t>3.31340440654671</t>
+  </si>
+  <si>
+    <t>0.0757685588334724</t>
+  </si>
+  <si>
+    <t>0.575055095823513</t>
+  </si>
+  <si>
+    <t>0.542586462987733</t>
+  </si>
+  <si>
+    <t>0.000133398098825194</t>
   </si>
   <si>
     <t>value of A = 200.000000</t>
   </si>
   <si>
-    <t>0.523559241135344</t>
-  </si>
-  <si>
-    <t>0.016268577835323</t>
-  </si>
-  <si>
-    <t>0.456053809392064</t>
-  </si>
-  <si>
-    <t>-0.978839117717818</t>
-  </si>
-  <si>
-    <t>0.0164028364839011</t>
-  </si>
-  <si>
-    <t>73.4597691343827</t>
-  </si>
-  <si>
-    <t>0.00160390988147143</t>
-  </si>
-  <si>
-    <t>-0.477450079958106</t>
-  </si>
-  <si>
-    <t>381.049368140221</t>
-  </si>
-  <si>
-    <t>0.0229624703226421</t>
-  </si>
-  <si>
-    <t>-0.221472093433488</t>
-  </si>
-  <si>
-    <t>0.524731735889966</t>
-  </si>
-  <si>
-    <t>0.013784156638018</t>
-  </si>
-  <si>
-    <t>-0.365186369329306</t>
-  </si>
-  <si>
-    <t>-0.0799227618698784</t>
-  </si>
-  <si>
-    <t>-1.68973003857566</t>
-  </si>
-  <si>
-    <t>123.140191699341</t>
-  </si>
-  <si>
-    <t>0.00132785003548981</t>
-  </si>
-  <si>
-    <t>-0.436494653259189</t>
-  </si>
-  <si>
-    <t>419.476385426546</t>
-  </si>
-  <si>
-    <t>0.0127325895507008</t>
-  </si>
-  <si>
-    <t>-0.226444113532592</t>
-  </si>
-  <si>
-    <t>0.542326364536276</t>
-  </si>
-  <si>
-    <t>0.0254927392557718</t>
-  </si>
-  <si>
-    <t>0.53243448627802</t>
-  </si>
-  <si>
-    <t>0.0366638050842839</t>
-  </si>
-  <si>
-    <t>0.513349860283071</t>
-  </si>
-  <si>
-    <t>0.0185459015145952</t>
-  </si>
-  <si>
-    <t>0.469099490560253</t>
-  </si>
-  <si>
-    <t>-0.987423480614857</t>
-  </si>
-  <si>
-    <t>0.0146763374746206</t>
-  </si>
-  <si>
-    <t>-253.846329167785</t>
-  </si>
-  <si>
-    <t>-3.81333961029855</t>
-  </si>
-  <si>
-    <t>-0.429467749051042</t>
-  </si>
-  <si>
-    <t>31.9065203052898</t>
-  </si>
-  <si>
-    <t>0.027714477244514</t>
-  </si>
-  <si>
-    <t>-0.249644180182137</t>
-  </si>
-  <si>
-    <t>0.55650192523083</t>
-  </si>
-  <si>
-    <t>0.553857362900638</t>
-  </si>
-  <si>
-    <t>0.000644725226178817</t>
-  </si>
-  <si>
-    <t>0.511893770355777</t>
-  </si>
-  <si>
-    <t>0.0481881363744417</t>
-  </si>
-  <si>
-    <t>0.468496520876292</t>
-  </si>
-  <si>
-    <t>-0.998899179233775</t>
-  </si>
-  <si>
-    <t>0.0148943545715006</t>
-  </si>
-  <si>
-    <t>7.84073590833006</t>
-  </si>
-  <si>
-    <t>0.00258664377939567</t>
-  </si>
-  <si>
-    <t>-0.524134952494341</t>
-  </si>
-  <si>
-    <t>53.4974799302128</t>
-  </si>
-  <si>
-    <t>0.0309105630164513</t>
-  </si>
-  <si>
-    <t>-0.237037336913071</t>
-  </si>
-  <si>
-    <t>0.551951480789554</t>
-  </si>
-  <si>
-    <t>0.0257978699696327</t>
-  </si>
-  <si>
-    <t>0.521034740779705</t>
-  </si>
-  <si>
-    <t>0.014959577586359</t>
-  </si>
-  <si>
-    <t>0.445785451361416</t>
-  </si>
-  <si>
-    <t>-0.979689908944032</t>
-  </si>
-  <si>
-    <t>0.0131972760371441</t>
-  </si>
-  <si>
-    <t>-290.070839249586</t>
-  </si>
-  <si>
-    <t>-4.31004411880231</t>
-  </si>
-  <si>
-    <t>-0.435916506698393</t>
-  </si>
-  <si>
-    <t>6.56836408256337</t>
-  </si>
-  <si>
-    <t>0.0640992056400957</t>
-  </si>
-  <si>
-    <t>-0.298623821076828</t>
-  </si>
-  <si>
-    <t>0.475950949928484</t>
-  </si>
-  <si>
-    <t>-0.985520244801924</t>
-  </si>
-  <si>
-    <t>0.012601386754631</t>
-  </si>
-  <si>
-    <t>5.49905404314038</t>
-  </si>
-  <si>
-    <t>0.00594482617656235</t>
-  </si>
-  <si>
-    <t>-0.521028506404333</t>
-  </si>
-  <si>
-    <t>5.43852760888499</t>
-  </si>
-  <si>
-    <t>0.0567361709365845</t>
-  </si>
-  <si>
-    <t>-0.317227140284979</t>
-  </si>
-  <si>
-    <t>0.463787779669434</t>
-  </si>
-  <si>
-    <t>-1.00459610884973</t>
-  </si>
-  <si>
-    <t>0.0137083297733972</t>
-  </si>
-  <si>
-    <t>4.71491598800833</t>
-  </si>
-  <si>
-    <t>0.00813375504198924</t>
-  </si>
-  <si>
-    <t>-0.557996118757845</t>
-  </si>
-  <si>
-    <t>0.605299843718744</t>
-  </si>
-  <si>
-    <t>16.6898383496576</t>
-  </si>
-  <si>
-    <t>0.0106085520657309</t>
-  </si>
-  <si>
-    <t>0.470197111077954</t>
-  </si>
-  <si>
-    <t>-0.985354903203229</t>
-  </si>
-  <si>
-    <t>0.0157858653139981</t>
-  </si>
-  <si>
-    <t>5.00501725770347</t>
-  </si>
-  <si>
-    <t>0.0820722020894574</t>
-  </si>
-  <si>
-    <t>-0.31367531123116</t>
+    <t>0.545460310409588</t>
+  </si>
+  <si>
+    <t>0.024516316644445</t>
+  </si>
+  <si>
+    <t>0.474675551057062</t>
+  </si>
+  <si>
+    <t>-0.981134596817543</t>
+  </si>
+  <si>
+    <t>0.0147430200041624</t>
+  </si>
+  <si>
+    <t>78.1957435605587</t>
+  </si>
+  <si>
+    <t>0.00155873712562342</t>
+  </si>
+  <si>
+    <t>-0.46183758629081</t>
+  </si>
+  <si>
+    <t>243.949094252375</t>
+  </si>
+  <si>
+    <t>0.0226668989907687</t>
+  </si>
+  <si>
+    <t>-0.227267083968534</t>
+  </si>
+  <si>
+    <t>0.526352891909248</t>
+  </si>
+  <si>
+    <t>0.0165252992645662</t>
+  </si>
+  <si>
+    <t>-0.0822889426519199</t>
+  </si>
+  <si>
+    <t>-0.121404015358019</t>
+  </si>
+  <si>
+    <t>-1.14284278874789</t>
+  </si>
+  <si>
+    <t>108.901685665042</t>
+  </si>
+  <si>
+    <t>0.00135244019365085</t>
+  </si>
+  <si>
+    <t>-0.458587973386721</t>
+  </si>
+  <si>
+    <t>370.436225653171</t>
+  </si>
+  <si>
+    <t>0.0197645086180396</t>
+  </si>
+  <si>
+    <t>-0.238504595600297</t>
+  </si>
+  <si>
+    <t>0.533740526843424</t>
+  </si>
+  <si>
+    <t>0.0374020184295417</t>
+  </si>
+  <si>
+    <t>0.548600848912047</t>
+  </si>
+  <si>
+    <t>0.0296642980973855</t>
+  </si>
+  <si>
+    <t>0.542927728446066</t>
+  </si>
+  <si>
+    <t>0.0259987894039717</t>
+  </si>
+  <si>
+    <t>0.480525216607583</t>
+  </si>
+  <si>
+    <t>-1.01642147084449</t>
+  </si>
+  <si>
+    <t>0.0143999175645932</t>
+  </si>
+  <si>
+    <t>-336.686006714879</t>
+  </si>
+  <si>
+    <t>-3.95006404195275</t>
+  </si>
+  <si>
+    <t>-0.439834450838533</t>
+  </si>
+  <si>
+    <t>46.4475654608014</t>
+  </si>
+  <si>
+    <t>0.0319609801752803</t>
+  </si>
+  <si>
+    <t>-0.241299070736013</t>
+  </si>
+  <si>
+    <t>0.574319305555693</t>
+  </si>
+  <si>
+    <t>0.56650407310009</t>
+  </si>
+  <si>
+    <t>0.000256641938411979</t>
+  </si>
+  <si>
+    <t>0.540531718870658</t>
+  </si>
+  <si>
+    <t>0.0244103338392</t>
+  </si>
+  <si>
+    <t>0.481141946947733</t>
+  </si>
+  <si>
+    <t>-0.989462551343014</t>
+  </si>
+  <si>
+    <t>0.0154823428935609</t>
+  </si>
+  <si>
+    <t>10.9678056635828</t>
+  </si>
+  <si>
+    <t>0.0033112786658608</t>
+  </si>
+  <si>
+    <t>-0.485621811454443</t>
+  </si>
+  <si>
+    <t>62.6957781826415</t>
+  </si>
+  <si>
+    <t>0.0247411635771356</t>
+  </si>
+  <si>
+    <t>-0.240291104511563</t>
+  </si>
+  <si>
+    <t>0.545506956711546</t>
+  </si>
+  <si>
+    <t>0.045260949532609</t>
+  </si>
+  <si>
+    <t>0.504670572123127</t>
+  </si>
+  <si>
+    <t>0.0225874022233578</t>
+  </si>
+  <si>
+    <t>0.47146777797457</t>
+  </si>
+  <si>
+    <t>-0.992287760584505</t>
+  </si>
+  <si>
+    <t>0.01352570768741</t>
+  </si>
+  <si>
+    <t>-292.414006092566</t>
+  </si>
+  <si>
+    <t>-4.46087642579024</t>
+  </si>
+  <si>
+    <t>-0.431424468033683</t>
+  </si>
+  <si>
+    <t>4.90062631000075</t>
+  </si>
+  <si>
+    <t>0.0529694957402825</t>
+  </si>
+  <si>
+    <t>-0.338998474524994</t>
+  </si>
+  <si>
+    <t>0.479836810482391</t>
+  </si>
+  <si>
+    <t>-0.990855728874463</t>
+  </si>
+  <si>
+    <t>0.0140816218284394</t>
+  </si>
+  <si>
+    <t>5.26556025232415</t>
+  </si>
+  <si>
+    <t>0.0106085027532194</t>
+  </si>
+  <si>
+    <t>-0.536611475371453</t>
+  </si>
+  <si>
+    <t>5.89798988440817</t>
+  </si>
+  <si>
+    <t>0.0558358989935548</t>
+  </si>
+  <si>
+    <t>-0.304508344255645</t>
+  </si>
+  <si>
+    <t>0.473704416076965</t>
+  </si>
+  <si>
+    <t>-0.981932412708263</t>
+  </si>
+  <si>
+    <t>0.0136794584215141</t>
+  </si>
+  <si>
+    <t>4.83161807837791</t>
+  </si>
+  <si>
+    <t>0.00858921420380559</t>
+  </si>
+  <si>
+    <t>-0.549342662019709</t>
+  </si>
+  <si>
+    <t>0.605299853335472</t>
+  </si>
+  <si>
+    <t>16.6900498910737</t>
+  </si>
+  <si>
+    <t>0.0287562375745802</t>
+  </si>
+  <si>
+    <t>0.475734311435775</t>
+  </si>
+  <si>
+    <t>-0.989814582215354</t>
+  </si>
+  <si>
+    <t>0.015328861564295</t>
+  </si>
+  <si>
+    <t>5.26700836006563</t>
+  </si>
+  <si>
+    <t>0.0756046644766217</t>
+  </si>
+  <si>
+    <t>-0.31053506531543</t>
   </si>
   <si>
     <t>Value of B = 0.010000</t>
   </si>
   <si>
-    <t>0.663325639494759</t>
-  </si>
-  <si>
-    <t>10.1059102394798</t>
-  </si>
-  <si>
-    <t>0.405542209413203</t>
-  </si>
-  <si>
-    <t>-0.79068953609111</t>
-  </si>
-  <si>
-    <t>0.00172387262790974</t>
-  </si>
-  <si>
-    <t>3932.7078226716</t>
-  </si>
-  <si>
-    <t>0.122947371059</t>
-  </si>
-  <si>
-    <t>-0.356693570420419</t>
-  </si>
-  <si>
-    <t>25294.9241678028</t>
-  </si>
-  <si>
-    <t>0.247121401934878</t>
-  </si>
-  <si>
-    <t>-0.170855694093324</t>
-  </si>
-  <si>
-    <t>0.699479001324262</t>
-  </si>
-  <si>
-    <t>10.099266122591</t>
-  </si>
-  <si>
-    <t>16.0968265195941</t>
-  </si>
-  <si>
-    <t>0.175289481062662</t>
-  </si>
-  <si>
-    <t>-0.801065349096737</t>
-  </si>
-  <si>
-    <t>3872.43375994349</t>
-  </si>
-  <si>
-    <t>0.111177831788533</t>
-  </si>
-  <si>
-    <t>-0.34404873172919</t>
-  </si>
-  <si>
-    <t>26852.885454825</t>
-  </si>
-  <si>
-    <t>0.258415282190379</t>
-  </si>
-  <si>
-    <t>-0.17263271868183</t>
-  </si>
-  <si>
-    <t>0.725483415997155</t>
-  </si>
-  <si>
-    <t>10.1004732087605</t>
-  </si>
-  <si>
-    <t>0.716690040158732</t>
-  </si>
-  <si>
-    <t>10.1000295145289</t>
+    <t>0.678871473783914</t>
+  </si>
+  <si>
+    <t>10.1052375561317</t>
+  </si>
+  <si>
+    <t>0.324989903920694</t>
+  </si>
+  <si>
+    <t>-0.860731344665863</t>
+  </si>
+  <si>
+    <t>0.00123757740625465</t>
+  </si>
+  <si>
+    <t>3481.46557116204</t>
+  </si>
+  <si>
+    <t>0.0940343943183067</t>
+  </si>
+  <si>
+    <t>-0.33877176867485</t>
+  </si>
+  <si>
+    <t>24690.1532221189</t>
+  </si>
+  <si>
+    <t>0.261533825966734</t>
+  </si>
+  <si>
+    <t>-0.168935379952289</t>
+  </si>
+  <si>
+    <t>0.728970917652874</t>
+  </si>
+  <si>
+    <t>10.1027926660885</t>
+  </si>
+  <si>
+    <t>13.2295801811841</t>
+  </si>
+  <si>
+    <t>0.0399809930764147</t>
+  </si>
+  <si>
+    <t>-1.22924104329421</t>
+  </si>
+  <si>
+    <t>5053.21332382731</t>
+  </si>
+  <si>
+    <t>0.0582131449645086</t>
+  </si>
+  <si>
+    <t>-0.34363968101184</t>
+  </si>
+  <si>
+    <t>65659.0820931488</t>
+  </si>
+  <si>
+    <t>0.24378512288651</t>
+  </si>
+  <si>
+    <t>-0.170334065225851</t>
+  </si>
+  <si>
+    <t>0.704124885471795</t>
+  </si>
+  <si>
+    <t>10.0997598337072</t>
+  </si>
+  <si>
+    <t>0.689722586082393</t>
+  </si>
+  <si>
+    <t>10.1073096637592</t>
   </si>
   <si>
     <t>Value of B = 0.100000</t>
   </si>
   <si>
-    <t>0.678605389869847</t>
-  </si>
-  <si>
-    <t>4.68913079041992</t>
-  </si>
-  <si>
-    <t>0.640010094886889</t>
-  </si>
-  <si>
-    <t>-0.934238605847687</t>
-  </si>
-  <si>
-    <t>0.0418351074640215</t>
-  </si>
-  <si>
-    <t>1429.07283538511</t>
-  </si>
-  <si>
-    <t>1.10315317877634</t>
-  </si>
-  <si>
-    <t>-0.346265799604546</t>
-  </si>
-  <si>
-    <t>21343.7685849189</t>
-  </si>
-  <si>
-    <t>0.75169056765226</t>
-  </si>
-  <si>
-    <t>-0.167943173550196</t>
-  </si>
-  <si>
-    <t>1.52276371492388</t>
-  </si>
-  <si>
-    <t>3.56350152433415</t>
-  </si>
-  <si>
-    <t>1.47888320484017</t>
-  </si>
-  <si>
-    <t>0.73117734967336</t>
-  </si>
-  <si>
-    <t>4.71191826250691</t>
-  </si>
-  <si>
-    <t>0.365068317376156</t>
-  </si>
-  <si>
-    <t>-0.817221288767944</t>
-  </si>
-  <si>
-    <t>0.00155680128891737</t>
-  </si>
-  <si>
-    <t>4153.85782727773</t>
-  </si>
-  <si>
-    <t>0.569893421656769</t>
-  </si>
-  <si>
-    <t>-0.340323716821766</t>
-  </si>
-  <si>
-    <t>9850.18466037405</t>
-  </si>
-  <si>
-    <t>1.15734084890263</t>
-  </si>
-  <si>
-    <t>-0.167378414372662</t>
-  </si>
-  <si>
-    <t>0.722158146607046</t>
-  </si>
-  <si>
-    <t>4.71117931481824</t>
-  </si>
-  <si>
-    <t>0.747349616187349</t>
-  </si>
-  <si>
-    <t>4.70459545095842</t>
+    <t>0.711933667299776</t>
+  </si>
+  <si>
+    <t>4.71014895034083</t>
+  </si>
+  <si>
+    <t>0.643197339467358</t>
+  </si>
+  <si>
+    <t>-0.936373783759525</t>
+  </si>
+  <si>
+    <t>0.0399720408293215</t>
+  </si>
+  <si>
+    <t>1808.30290437701</t>
+  </si>
+  <si>
+    <t>1.02201735109935</t>
+  </si>
+  <si>
+    <t>-0.341629448270287</t>
+  </si>
+  <si>
+    <t>14957.5309550013</t>
+  </si>
+  <si>
+    <t>1.3972344866345</t>
+  </si>
+  <si>
+    <t>-0.172956574000937</t>
+  </si>
+  <si>
+    <t>1.53769682061235</t>
+  </si>
+  <si>
+    <t>10.9612737047817</t>
+  </si>
+  <si>
+    <t>1.82188053500967</t>
+  </si>
+  <si>
+    <t>0.716200577710341</t>
+  </si>
+  <si>
+    <t>4.71124697304539</t>
+  </si>
+  <si>
+    <t>0.39200496780408</t>
+  </si>
+  <si>
+    <t>-0.796606365840358</t>
+  </si>
+  <si>
+    <t>0.00151277682305903</t>
+  </si>
+  <si>
+    <t>1993.24500843749</t>
+  </si>
+  <si>
+    <t>0.624423402128139</t>
+  </si>
+  <si>
+    <t>-0.335566556142854</t>
+  </si>
+  <si>
+    <t>13700.6294369533</t>
+  </si>
+  <si>
+    <t>1.80846681982712</t>
+  </si>
+  <si>
+    <t>-0.164395375888558</t>
+  </si>
+  <si>
+    <t>0.72515108803802</t>
+  </si>
+  <si>
+    <t>4.71131254008557</t>
+  </si>
+  <si>
+    <t>0.712721877609125</t>
+  </si>
+  <si>
+    <t>4.70499660563014</t>
   </si>
   <si>
     <t>Value of B = 1.000000</t>
   </si>
   <si>
-    <t>0.660289661046123</t>
-  </si>
-  <si>
-    <t>-6.18504793304465</t>
-  </si>
-  <si>
-    <t>1.30418300380106</t>
-  </si>
-  <si>
-    <t>1292.91802439776</t>
-  </si>
-  <si>
-    <t>3.20716858077877</t>
-  </si>
-  <si>
-    <t>-0.334519342251262</t>
-  </si>
-  <si>
-    <t>7117.54437408847</t>
-  </si>
-  <si>
-    <t>2.6599779263363</t>
-  </si>
-  <si>
-    <t>-0.175473153337913</t>
-  </si>
-  <si>
-    <t>0.631548145853111</t>
-  </si>
-  <si>
-    <t>-0.931269192832578</t>
-  </si>
-  <si>
-    <t>0.0393814948401829</t>
-  </si>
-  <si>
-    <t>1833.45846162152</t>
-  </si>
-  <si>
-    <t>2.96788553787782</t>
-  </si>
-  <si>
-    <t>-0.345546873287753</t>
-  </si>
-  <si>
-    <t>6110.53452795255</t>
-  </si>
-  <si>
-    <t>4.5603776177995</t>
-  </si>
-  <si>
-    <t>-0.163734589294857</t>
+    <t>0.680931238700266</t>
+  </si>
+  <si>
+    <t>-8.43114176048904</t>
+  </si>
+  <si>
+    <t>1.48814812592077</t>
+  </si>
+  <si>
+    <t>2206.86159220474</t>
+  </si>
+  <si>
+    <t>2.45112562460337</t>
+  </si>
+  <si>
+    <t>-0.339830512392847</t>
+  </si>
+  <si>
+    <t>5531.9939979802</t>
+  </si>
+  <si>
+    <t>2.79493575613262</t>
+  </si>
+  <si>
+    <t>-0.169416599972788</t>
+  </si>
+  <si>
+    <t>0.675370892662129</t>
+  </si>
+  <si>
+    <t>-0.933777542548756</t>
+  </si>
+  <si>
+    <t>0.0505929720160483</t>
+  </si>
+  <si>
+    <t>1506.88012379384</t>
+  </si>
+  <si>
+    <t>3.20010614331955</t>
+  </si>
+  <si>
+    <t>-0.340129764339492</t>
+  </si>
+  <si>
+    <t>4110.3251753258</t>
+  </si>
+  <si>
+    <t>3.03090524529494</t>
+  </si>
+  <si>
+    <t>-0.172920420482678</t>
   </si>
   <si>
     <t>Value of B = 4.000000</t>
   </si>
   <si>
-    <t>0.638441515220266</t>
-  </si>
-  <si>
-    <t>-0.937663989403011</t>
-  </si>
-  <si>
-    <t>0.0440626782856389</t>
-  </si>
-  <si>
-    <t>5466.91953132059</t>
-  </si>
-  <si>
-    <t>4.27862664386918</t>
-  </si>
-  <si>
-    <t>-0.172730016242323</t>
-  </si>
-  <si>
-    <t>0.640405960098889</t>
-  </si>
-  <si>
-    <t>-0.9342769227174</t>
-  </si>
-  <si>
-    <t>0.0417292305171169</t>
-  </si>
-  <si>
-    <t>0.605299820422585</t>
-  </si>
-  <si>
-    <t>16.5253881343008</t>
-  </si>
-  <si>
-    <t>0.750262502231647</t>
-  </si>
-  <si>
-    <t>8.77612072907005</t>
-  </si>
-  <si>
-    <t>0.686981570564083</t>
-  </si>
-  <si>
-    <t>-1.62880123939899</t>
-  </si>
-  <si>
-    <t>1.42288109778095</t>
-  </si>
-  <si>
-    <t>3866.59654583332</t>
-  </si>
-  <si>
-    <t>0.158792171887588</t>
-  </si>
-  <si>
-    <t>-0.337517465257431</t>
-  </si>
-  <si>
-    <t>32554.8763434554</t>
-  </si>
-  <si>
-    <t>0.2477150265102</t>
-  </si>
-  <si>
-    <t>-0.175951940763777</t>
-  </si>
-  <si>
-    <t>0.733202740845306</t>
-  </si>
-  <si>
-    <t>8.77413260993555</t>
-  </si>
-  <si>
-    <t>19.4743807100693</t>
-  </si>
-  <si>
-    <t>0.0435599814985413</t>
-  </si>
-  <si>
-    <t>-1.51764513772243</t>
-  </si>
-  <si>
-    <t>4806.73176111398</t>
-  </si>
-  <si>
-    <t>0.0787450271458358</t>
-  </si>
-  <si>
-    <t>-0.339935959153697</t>
-  </si>
-  <si>
-    <t>59757.724158016</t>
-  </si>
-  <si>
-    <t>0.228032506458636</t>
-  </si>
-  <si>
-    <t>-0.172107862715803</t>
-  </si>
-  <si>
-    <t>0.728638073701698</t>
-  </si>
-  <si>
-    <t>8.77603415199633</t>
-  </si>
-  <si>
-    <t>0.674300278813269</t>
-  </si>
-  <si>
-    <t>8.77429028391409</t>
-  </si>
-  <si>
-    <t>0.679347868139752</t>
-  </si>
-  <si>
-    <t>6.73866322703546</t>
-  </si>
-  <si>
-    <t>0.690756287984545</t>
-  </si>
-  <si>
-    <t>-1.71387349703248</t>
-  </si>
-  <si>
-    <t>1.49628171622328</t>
-  </si>
-  <si>
-    <t>2012.2568967141</t>
-  </si>
-  <si>
-    <t>0.37407838609596</t>
-  </si>
-  <si>
-    <t>-0.330774108690026</t>
-  </si>
-  <si>
-    <t>22637.8657405163</t>
-  </si>
-  <si>
-    <t>0.645981301168316</t>
-  </si>
-  <si>
-    <t>-0.178984725138915</t>
-  </si>
-  <si>
-    <t>0.707333202299857</t>
-  </si>
-  <si>
-    <t>6.73827434116025</t>
-  </si>
-  <si>
-    <t>0.654504134026796</t>
-  </si>
-  <si>
-    <t>-0.930688945558596</t>
-  </si>
-  <si>
-    <t>0.0434483239304945</t>
-  </si>
-  <si>
-    <t>1981.55626604302</t>
-  </si>
-  <si>
-    <t>0.628927922676443</t>
-  </si>
-  <si>
-    <t>-0.345003324278556</t>
-  </si>
-  <si>
-    <t>33039.522387673</t>
-  </si>
-  <si>
-    <t>0.519355205208278</t>
-  </si>
-  <si>
-    <t>-0.167680702862803</t>
-  </si>
-  <si>
-    <t>0.717786684925227</t>
-  </si>
-  <si>
-    <t>6.73823487216773</t>
-  </si>
-  <si>
-    <t>0.709005967457224</t>
-  </si>
-  <si>
-    <t>6.73973275220387</t>
-  </si>
-  <si>
-    <t>0.677082663387063</t>
-  </si>
-  <si>
-    <t>-8.49410492172028</t>
-  </si>
-  <si>
-    <t>2.469813653848</t>
-  </si>
-  <si>
-    <t>1341.55697168358</t>
-  </si>
-  <si>
-    <t>2.57855822095</t>
-  </si>
-  <si>
-    <t>-0.345889074535513</t>
-  </si>
-  <si>
-    <t>10161.2824613923</t>
-  </si>
-  <si>
-    <t>2.71560997537825</t>
-  </si>
-  <si>
-    <t>-0.164379318283295</t>
-  </si>
-  <si>
-    <t>0.671898238656086</t>
-  </si>
-  <si>
-    <t>-0.937609260239386</t>
-  </si>
-  <si>
-    <t>0.0485992389173757</t>
-  </si>
-  <si>
-    <t>1353.20676777731</t>
-  </si>
-  <si>
-    <t>3.54936779366447</t>
-  </si>
-  <si>
-    <t>-0.335631055202985</t>
-  </si>
-  <si>
-    <t>6147.97202005535</t>
-  </si>
-  <si>
-    <t>4.18195032862678</t>
-  </si>
-  <si>
-    <t>-0.172882571054701</t>
-  </si>
-  <si>
-    <t>0.661333704846843</t>
-  </si>
-  <si>
-    <t>-0.934706663220692</t>
-  </si>
-  <si>
-    <t>0.046209264797537</t>
-  </si>
-  <si>
-    <t>4590.96932718905</t>
-  </si>
-  <si>
-    <t>3.25868469195516</t>
-  </si>
-  <si>
-    <t>-0.180689935752755</t>
-  </si>
-  <si>
-    <t>0.674316863760232</t>
-  </si>
-  <si>
-    <t>-1.99096033509156</t>
-  </si>
-  <si>
-    <t>1.49462953055917</t>
-  </si>
-  <si>
-    <t>17.3221246303024</t>
-  </si>
-  <si>
-    <t>1.45938684786468</t>
-  </si>
-  <si>
-    <t>13.0746343199472</t>
-  </si>
-  <si>
-    <t>2.34921911157313</t>
-  </si>
-  <si>
-    <t>0.700687543179561</t>
-  </si>
-  <si>
-    <t>8.75665181607131</t>
-  </si>
-  <si>
-    <t>0.655613699506923</t>
-  </si>
-  <si>
-    <t>-0.937400391606279</t>
-  </si>
-  <si>
-    <t>0.0452098539697767</t>
-  </si>
-  <si>
-    <t>4004.29419672169</t>
-  </si>
-  <si>
-    <t>0.0941945139870829</t>
-  </si>
-  <si>
-    <t>-0.340385898788012</t>
-  </si>
-  <si>
-    <t>27230.0852051309</t>
-  </si>
-  <si>
-    <t>0.208370048406926</t>
-  </si>
-  <si>
-    <t>-0.167806044879683</t>
-  </si>
-  <si>
-    <t>0.730195189327093</t>
-  </si>
-  <si>
-    <t>8.75747303690764</t>
-  </si>
-  <si>
-    <t>0.490839500297483</t>
-  </si>
-  <si>
-    <t>0.00212777457993922</t>
-  </si>
-  <si>
-    <t>-0.0854750773495205</t>
-  </si>
-  <si>
-    <t>5075.2786651374</t>
-  </si>
-  <si>
-    <t>0.0555748869286781</t>
-  </si>
-  <si>
-    <t>-0.330764616425216</t>
-  </si>
-  <si>
-    <t>48966.5016310203</t>
-  </si>
-  <si>
-    <t>0.191014387772615</t>
-  </si>
-  <si>
-    <t>-0.175394474157093</t>
-  </si>
-  <si>
-    <t>0.699202831983599</t>
-  </si>
-  <si>
-    <t>8.75925010176596</t>
-  </si>
-  <si>
-    <t>0.692662314180937</t>
-  </si>
-  <si>
-    <t>8.75896777524444</t>
-  </si>
-  <si>
-    <t>0.701392375648121</t>
-  </si>
-  <si>
-    <t>7.49789662865569</t>
-  </si>
-  <si>
-    <t>0.641651729422749</t>
-  </si>
-  <si>
-    <t>-0.930745561822509</t>
-  </si>
-  <si>
-    <t>0.0511734297750076</t>
-  </si>
-  <si>
-    <t>-0.1708484357553</t>
-  </si>
-  <si>
-    <t>-0.0281648219739646</t>
-  </si>
-  <si>
-    <t>-0.145564149473068</t>
-  </si>
-  <si>
-    <t>20669.1744715839</t>
-  </si>
-  <si>
-    <t>0.891553889185266</t>
-  </si>
-  <si>
-    <t>-0.174223679988933</t>
-  </si>
-  <si>
-    <t>1.3741658037692</t>
-  </si>
-  <si>
-    <t>6.02685464698685</t>
-  </si>
-  <si>
-    <t>16.2871511814292</t>
-  </si>
-  <si>
-    <t>0.699093552560426</t>
-  </si>
-  <si>
-    <t>7.49790547488992</t>
-  </si>
-  <si>
-    <t>0.662000464583446</t>
-  </si>
-  <si>
-    <t>-0.933342894117774</t>
-  </si>
-  <si>
-    <t>0.0468972891027343</t>
-  </si>
-  <si>
-    <t>2866.01128334591</t>
-  </si>
-  <si>
-    <t>1.60367486664859</t>
-  </si>
-  <si>
-    <t>-0.344015720416309</t>
-  </si>
-  <si>
-    <t>19183.776201405</t>
-  </si>
-  <si>
-    <t>0.651369841611749</t>
-  </si>
-  <si>
-    <t>-0.175055866157054</t>
-  </si>
-  <si>
-    <t>0.709995596598926</t>
-  </si>
-  <si>
-    <t>7.4978984908944</t>
-  </si>
-  <si>
-    <t>0.713422762800072</t>
-  </si>
-  <si>
-    <t>7.49451658293934</t>
-  </si>
-  <si>
-    <t>0.661300285699935</t>
-  </si>
-  <si>
-    <t>-0.931498431344152</t>
-  </si>
-  <si>
-    <t>0.0423037229428619</t>
-  </si>
-  <si>
-    <t>-0.0912933035764749</t>
-  </si>
-  <si>
-    <t>-0.0266360220500182</t>
-  </si>
-  <si>
-    <t>-0.121748255852246</t>
-  </si>
-  <si>
-    <t>3102.3103421954</t>
-  </si>
-  <si>
-    <t>3.03784891566082</t>
-  </si>
-  <si>
-    <t>-0.169328103382964</t>
-  </si>
-  <si>
-    <t>0.639675488641634</t>
-  </si>
-  <si>
-    <t>-0.931634299830272</t>
-  </si>
-  <si>
-    <t>0.0452829656311174</t>
-  </si>
-  <si>
-    <t>1270.39714659108</t>
-  </si>
-  <si>
-    <t>2.49712178608077</t>
-  </si>
-  <si>
-    <t>-0.334437904204026</t>
-  </si>
-  <si>
-    <t>4611.95939283463</t>
-  </si>
-  <si>
-    <t>3.55973639599473</t>
-  </si>
-  <si>
-    <t>-0.173859114681904</t>
-  </si>
-  <si>
-    <t>0.643624871861856</t>
-  </si>
-  <si>
-    <t>-0.926937410287181</t>
-  </si>
-  <si>
-    <t>0.0478184075291346</t>
-  </si>
-  <si>
-    <t>926.404666054405</t>
-  </si>
-  <si>
-    <t>3.90502519483547</t>
-  </si>
-  <si>
-    <t>-0.339940530510731</t>
-  </si>
-  <si>
-    <t>0.605299854893263</t>
-  </si>
-  <si>
-    <t>18.2235393986982</t>
-  </si>
-  <si>
-    <t>0.634333666974048</t>
-  </si>
-  <si>
-    <t>-0.936275034844335</t>
-  </si>
-  <si>
-    <t>0.0433174017825452</t>
-  </si>
-  <si>
-    <t>2183.35823984001</t>
-  </si>
-  <si>
-    <t>4.73568880083437</t>
-  </si>
-  <si>
-    <t>-0.17509449930898</t>
+    <t>0.643134313815733</t>
+  </si>
+  <si>
+    <t>-0.937958433529057</t>
+  </si>
+  <si>
+    <t>0.0435321600371534</t>
+  </si>
+  <si>
+    <t>2560.88238452373</t>
+  </si>
+  <si>
+    <t>4.13216020016198</t>
+  </si>
+  <si>
+    <t>-0.172044513276353</t>
+  </si>
+  <si>
+    <t>0.641533028375728</t>
+  </si>
+  <si>
+    <t>-0.93704769828167</t>
+  </si>
+  <si>
+    <t>0.0442387471099279</t>
+  </si>
+  <si>
+    <t>0.605299825011124</t>
+  </si>
+  <si>
+    <t>16.6742056036898</t>
+  </si>
+  <si>
+    <t>0.709171637434763</t>
+  </si>
+  <si>
+    <t>8.77652737009093</t>
+  </si>
+  <si>
+    <t>0.662313968263676</t>
+  </si>
+  <si>
+    <t>-1.85080825584426</t>
+  </si>
+  <si>
+    <t>1.52224171697096</t>
+  </si>
+  <si>
+    <t>3631.03287473967</t>
+  </si>
+  <si>
+    <t>0.0837040689351146</t>
+  </si>
+  <si>
+    <t>-0.352338300170467</t>
+  </si>
+  <si>
+    <t>24240.1011104253</t>
+  </si>
+  <si>
+    <t>0.245515764838151</t>
+  </si>
+  <si>
+    <t>-0.169881488952378</t>
+  </si>
+  <si>
+    <t>0.699735320322324</t>
+  </si>
+  <si>
+    <t>8.77611268832011</t>
+  </si>
+  <si>
+    <t>20.3958334146397</t>
+  </si>
+  <si>
+    <t>0.0673994362461313</t>
+  </si>
+  <si>
+    <t>-1.41780356626233</t>
+  </si>
+  <si>
+    <t>4458.61661648533</t>
+  </si>
+  <si>
+    <t>0.0751160857039954</t>
+  </si>
+  <si>
+    <t>-0.342990914417245</t>
+  </si>
+  <si>
+    <t>39690.4340007345</t>
+  </si>
+  <si>
+    <t>0.235083073206906</t>
+  </si>
+  <si>
+    <t>-0.172884535260745</t>
+  </si>
+  <si>
+    <t>0.705048750248861</t>
+  </si>
+  <si>
+    <t>8.77262756256275</t>
+  </si>
+  <si>
+    <t>0.685634061124583</t>
+  </si>
+  <si>
+    <t>8.77683129773344</t>
+  </si>
+  <si>
+    <t>0.711446137753307</t>
+  </si>
+  <si>
+    <t>6.73935858691558</t>
+  </si>
+  <si>
+    <t>0.687170471565051</t>
+  </si>
+  <si>
+    <t>-2.18367482456362</t>
+  </si>
+  <si>
+    <t>1.54224094781949</t>
+  </si>
+  <si>
+    <t>2145.53631790035</t>
+  </si>
+  <si>
+    <t>0.426325169288497</t>
+  </si>
+  <si>
+    <t>-0.331043626071209</t>
+  </si>
+  <si>
+    <t>9047.57988524667</t>
+  </si>
+  <si>
+    <t>0.636308581941066</t>
+  </si>
+  <si>
+    <t>-0.171470974748837</t>
+  </si>
+  <si>
+    <t>0.700862596209995</t>
+  </si>
+  <si>
+    <t>6.7367176497515</t>
+  </si>
+  <si>
+    <t>0.639219061833881</t>
+  </si>
+  <si>
+    <t>-0.929695889978877</t>
+  </si>
+  <si>
+    <t>0.04308619985192</t>
+  </si>
+  <si>
+    <t>1549.36310111926</t>
+  </si>
+  <si>
+    <t>0.393341997300073</t>
+  </si>
+  <si>
+    <t>-0.335591128471609</t>
+  </si>
+  <si>
+    <t>12797.8424820025</t>
+  </si>
+  <si>
+    <t>0.569755002117359</t>
+  </si>
+  <si>
+    <t>-0.166304800227351</t>
+  </si>
+  <si>
+    <t>0.697909623449339</t>
+  </si>
+  <si>
+    <t>6.73947048670471</t>
+  </si>
+  <si>
+    <t>0.67193298403179</t>
+  </si>
+  <si>
+    <t>6.73986640745288</t>
+  </si>
+  <si>
+    <t>0.674846075237573</t>
+  </si>
+  <si>
+    <t>653.960112313994</t>
+  </si>
+  <si>
+    <t>2.36508034450402</t>
+  </si>
+  <si>
+    <t>1489.06512332193</t>
+  </si>
+  <si>
+    <t>1.53465425451382</t>
+  </si>
+  <si>
+    <t>-0.325725946695462</t>
+  </si>
+  <si>
+    <t>8467.2614745622</t>
+  </si>
+  <si>
+    <t>3.34550584172104</t>
+  </si>
+  <si>
+    <t>-0.173727159202941</t>
+  </si>
+  <si>
+    <t>0.661722076816048</t>
+  </si>
+  <si>
+    <t>-0.933134225572396</t>
+  </si>
+  <si>
+    <t>0.046635993719088</t>
+  </si>
+  <si>
+    <t>610.298540758694</t>
+  </si>
+  <si>
+    <t>2.72962274680287</t>
+  </si>
+  <si>
+    <t>-0.349174163414824</t>
+  </si>
+  <si>
+    <t>6107.54537547545</t>
+  </si>
+  <si>
+    <t>4.40616022353717</t>
+  </si>
+  <si>
+    <t>-0.174181540318075</t>
+  </si>
+  <si>
+    <t>0.651460583531796</t>
+  </si>
+  <si>
+    <t>-0.934801274857388</t>
+  </si>
+  <si>
+    <t>0.0435233347278968</t>
+  </si>
+  <si>
+    <t>2776.07119616097</t>
+  </si>
+  <si>
+    <t>4.01937707219965</t>
+  </si>
+  <si>
+    <t>-0.17288414239865</t>
+  </si>
+  <si>
+    <t>0.681076935402828</t>
+  </si>
+  <si>
+    <t>-2.11866112692708</t>
+  </si>
+  <si>
+    <t>1.57382794885786</t>
+  </si>
+  <si>
+    <t>0.60529986637807</t>
+  </si>
+  <si>
+    <t>17.3502721054707</t>
+  </si>
+  <si>
+    <t>2.50611217335114</t>
+  </si>
+  <si>
+    <t>1.44401319213375</t>
+  </si>
+  <si>
+    <t>12.9221651353094</t>
+  </si>
+  <si>
+    <t>2.21666454791361</t>
+  </si>
+  <si>
+    <t>0.699129720410972</t>
+  </si>
+  <si>
+    <t>8.75747969816941</t>
+  </si>
+  <si>
+    <t>0.660453637654466</t>
+  </si>
+  <si>
+    <t>-0.935609569550484</t>
+  </si>
+  <si>
+    <t>0.0435260476427713</t>
+  </si>
+  <si>
+    <t>4739.10374898679</t>
+  </si>
+  <si>
+    <t>0.104664322805224</t>
+  </si>
+  <si>
+    <t>-0.335828848637822</t>
+  </si>
+  <si>
+    <t>24677.584398344</t>
+  </si>
+  <si>
+    <t>0.282539587273433</t>
+  </si>
+  <si>
+    <t>-0.170047398454013</t>
+  </si>
+  <si>
+    <t>0.712977344066532</t>
+  </si>
+  <si>
+    <t>8.7593597504173</t>
+  </si>
+  <si>
+    <t>1.45467480965577</t>
+  </si>
+  <si>
+    <t>0.00111481915038172</t>
+  </si>
+  <si>
+    <t>-0.0714957056869914</t>
+  </si>
+  <si>
+    <t>4959.06626745732</t>
+  </si>
+  <si>
+    <t>0.0596323595721494</t>
+  </si>
+  <si>
+    <t>-0.344071007296761</t>
+  </si>
+  <si>
+    <t>43788.3993581819</t>
+  </si>
+  <si>
+    <t>0.211193354237717</t>
+  </si>
+  <si>
+    <t>-0.170105232236006</t>
+  </si>
+  <si>
+    <t>0.70916215299285</t>
+  </si>
+  <si>
+    <t>8.75691104586104</t>
+  </si>
+  <si>
+    <t>0.70406545533148</t>
+  </si>
+  <si>
+    <t>8.75850394150448</t>
+  </si>
+  <si>
+    <t>0.711328918609073</t>
+  </si>
+  <si>
+    <t>7.4952453887725</t>
+  </si>
+  <si>
+    <t>0.643326234457747</t>
+  </si>
+  <si>
+    <t>-0.926773800028546</t>
+  </si>
+  <si>
+    <t>0.0486209399226936</t>
+  </si>
+  <si>
+    <t>-0.127930646487469</t>
+  </si>
+  <si>
+    <t>-0.0225605217505954</t>
+  </si>
+  <si>
+    <t>-0.128326270493493</t>
+  </si>
+  <si>
+    <t>16738.1574233355</t>
+  </si>
+  <si>
+    <t>0.68921973582141</t>
+  </si>
+  <si>
+    <t>-0.167258809182127</t>
+  </si>
+  <si>
+    <t>1.2911197304574</t>
+  </si>
+  <si>
+    <t>10.6381265044016</t>
+  </si>
+  <si>
+    <t>16.3234492048083</t>
+  </si>
+  <si>
+    <t>0.684975850232662</t>
+  </si>
+  <si>
+    <t>7.49791850481096</t>
+  </si>
+  <si>
+    <t>0.640253957940487</t>
+  </si>
+  <si>
+    <t>-0.926887753623282</t>
+  </si>
+  <si>
+    <t>0.0450181143394839</t>
+  </si>
+  <si>
+    <t>1872.32190974247</t>
+  </si>
+  <si>
+    <t>1.12991262478748</t>
+  </si>
+  <si>
+    <t>-0.33872034674533</t>
+  </si>
+  <si>
+    <t>22822.0600573572</t>
+  </si>
+  <si>
+    <t>0.571638706160803</t>
+  </si>
+  <si>
+    <t>-0.175123410802234</t>
+  </si>
+  <si>
+    <t>0.723301439043066</t>
+  </si>
+  <si>
+    <t>7.49562281149055</t>
+  </si>
+  <si>
+    <t>0.693201744818202</t>
+  </si>
+  <si>
+    <t>7.49798584755701</t>
+  </si>
+  <si>
+    <t>0.653965646558995</t>
+  </si>
+  <si>
+    <t>-0.939132812943773</t>
+  </si>
+  <si>
+    <t>0.0470147856332514</t>
+  </si>
+  <si>
+    <t>-0.0837297985300922</t>
+  </si>
+  <si>
+    <t>-0.0256551746173686</t>
+  </si>
+  <si>
+    <t>-0.118564746199064</t>
+  </si>
+  <si>
+    <t>3526.64712469974</t>
+  </si>
+  <si>
+    <t>4.26705207948541</t>
+  </si>
+  <si>
+    <t>-0.171138753781677</t>
+  </si>
+  <si>
+    <t>0.636352257384247</t>
+  </si>
+  <si>
+    <t>-0.930904424563009</t>
+  </si>
+  <si>
+    <t>0.042507596734795</t>
+  </si>
+  <si>
+    <t>611.776373013307</t>
+  </si>
+  <si>
+    <t>2.91336166950592</t>
+  </si>
+  <si>
+    <t>-0.340009770907476</t>
+  </si>
+  <si>
+    <t>3449.48104321812</t>
+  </si>
+  <si>
+    <t>3.30628130794247</t>
+  </si>
+  <si>
+    <t>-0.169946653206742</t>
+  </si>
+  <si>
+    <t>0.635937222005591</t>
+  </si>
+  <si>
+    <t>-0.932496045881258</t>
+  </si>
+  <si>
+    <t>0.0432411658779606</t>
+  </si>
+  <si>
+    <t>740.097135310514</t>
+  </si>
+  <si>
+    <t>3.83878707666243</t>
+  </si>
+  <si>
+    <t>-0.336256179804916</t>
+  </si>
+  <si>
+    <t>0.605299864253657</t>
+  </si>
+  <si>
+    <t>17.7683068296113</t>
+  </si>
+  <si>
+    <t>0.643746146527071</t>
+  </si>
+  <si>
+    <t>-0.935946365802894</t>
+  </si>
+  <si>
+    <t>0.0436735716025549</t>
+  </si>
+  <si>
+    <t>2370.91004384705</t>
+  </si>
+  <si>
+    <t>3.57452984015827</t>
+  </si>
+  <si>
+    <t>-0.167701843976154</t>
   </si>
   <si>
     <t>Value of C = 0.010000</t>
@@ -3382,7 +3388,7 @@
         <v>830</v>
       </c>
       <c r="E2" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="3">
@@ -3399,7 +3405,7 @@
         <v>831</v>
       </c>
       <c r="E3" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="4">
@@ -3416,7 +3422,7 @@
         <v>832</v>
       </c>
       <c r="E4" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="5">
@@ -3433,7 +3439,7 @@
         <v>833</v>
       </c>
       <c r="E5" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="6">
@@ -3450,7 +3456,7 @@
         <v>834</v>
       </c>
       <c r="E6" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="7">
@@ -3467,7 +3473,7 @@
         <v>835</v>
       </c>
       <c r="E7" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="8">
@@ -3484,7 +3490,7 @@
         <v>836</v>
       </c>
       <c r="E8" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="9">
@@ -3501,7 +3507,7 @@
         <v>837</v>
       </c>
       <c r="E9" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="10">
@@ -3518,7 +3524,7 @@
         <v>838</v>
       </c>
       <c r="E10" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="11">
@@ -3535,7 +3541,7 @@
         <v>839</v>
       </c>
       <c r="E11" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="12">
@@ -3552,7 +3558,7 @@
         <v>840</v>
       </c>
       <c r="E12" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="13">
@@ -3569,7 +3575,7 @@
         <v>841</v>
       </c>
       <c r="E13" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="14">
@@ -3586,7 +3592,7 @@
         <v>830</v>
       </c>
       <c r="E14" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="15">
@@ -3603,7 +3609,7 @@
         <v>842</v>
       </c>
       <c r="E15" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="16">
@@ -3620,7 +3626,7 @@
         <v>843</v>
       </c>
       <c r="E16" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="17">
@@ -3637,7 +3643,7 @@
         <v>844</v>
       </c>
       <c r="E17" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="18">
@@ -3654,7 +3660,7 @@
         <v>845</v>
       </c>
       <c r="E18" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="19">
@@ -3671,7 +3677,7 @@
         <v>846</v>
       </c>
       <c r="E19" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="20">
@@ -3688,7 +3694,7 @@
         <v>847</v>
       </c>
       <c r="E20" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="21">
@@ -3705,7 +3711,7 @@
         <v>848</v>
       </c>
       <c r="E21" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="22">
@@ -3722,7 +3728,7 @@
         <v>849</v>
       </c>
       <c r="E22" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="23">
@@ -3739,7 +3745,7 @@
         <v>850</v>
       </c>
       <c r="E23" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="24">
@@ -3756,7 +3762,7 @@
         <v>851</v>
       </c>
       <c r="E24" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="25">
@@ -3773,7 +3779,7 @@
         <v>852</v>
       </c>
       <c r="E25" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="26">
@@ -3790,7 +3796,7 @@
         <v>830</v>
       </c>
       <c r="E26" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="27">
@@ -3807,7 +3813,7 @@
         <v>853</v>
       </c>
       <c r="E27" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="28">
@@ -3824,7 +3830,7 @@
         <v>854</v>
       </c>
       <c r="E28" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="29">
@@ -3841,7 +3847,7 @@
         <v>830</v>
       </c>
       <c r="E29" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="30">
@@ -3858,7 +3864,7 @@
         <v>855</v>
       </c>
       <c r="E30" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="31">
@@ -3875,7 +3881,7 @@
         <v>856</v>
       </c>
       <c r="E31" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="32">
@@ -3892,7 +3898,7 @@
         <v>857</v>
       </c>
       <c r="E32" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="33">
@@ -3909,7 +3915,7 @@
         <v>858</v>
       </c>
       <c r="E33" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="34">
@@ -3926,7 +3932,7 @@
         <v>859</v>
       </c>
       <c r="E34" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="35">
@@ -3943,7 +3949,7 @@
         <v>860</v>
       </c>
       <c r="E35" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="36">
@@ -3960,7 +3966,7 @@
         <v>861</v>
       </c>
       <c r="E36" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="37">
@@ -3977,7 +3983,7 @@
         <v>862</v>
       </c>
       <c r="E37" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="38">
@@ -3994,7 +4000,7 @@
         <v>863</v>
       </c>
       <c r="E38" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="39">
@@ -4011,7 +4017,7 @@
         <v>864</v>
       </c>
       <c r="E39" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="40">
@@ -4028,7 +4034,7 @@
         <v>865</v>
       </c>
       <c r="E40" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="41">
@@ -4045,7 +4051,7 @@
         <v>866</v>
       </c>
       <c r="E41" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="42">
@@ -4062,7 +4068,7 @@
         <v>867</v>
       </c>
       <c r="E42" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="43">
@@ -4079,7 +4085,7 @@
         <v>868</v>
       </c>
       <c r="E43" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="44">
@@ -4096,7 +4102,7 @@
         <v>869</v>
       </c>
       <c r="E44" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="45">
@@ -4113,7 +4119,7 @@
         <v>870</v>
       </c>
       <c r="E45" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="46">
@@ -4130,7 +4136,7 @@
         <v>871</v>
       </c>
       <c r="E46" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="47">
@@ -4147,7 +4153,7 @@
         <v>857</v>
       </c>
       <c r="E47" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="48">
@@ -4164,7 +4170,7 @@
         <v>872</v>
       </c>
       <c r="E48" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="49">
@@ -4181,7 +4187,7 @@
         <v>873</v>
       </c>
       <c r="E49" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="50">
@@ -4198,7 +4204,7 @@
         <v>874</v>
       </c>
       <c r="E50" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="51">
@@ -4215,7 +4221,7 @@
         <v>875</v>
       </c>
       <c r="E51" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="52">
@@ -4232,7 +4238,7 @@
         <v>876</v>
       </c>
       <c r="E52" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="53">
@@ -4249,7 +4255,7 @@
         <v>877</v>
       </c>
       <c r="E53" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="54">
@@ -4266,7 +4272,7 @@
         <v>878</v>
       </c>
       <c r="E54" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="55">
@@ -4283,7 +4289,7 @@
         <v>879</v>
       </c>
       <c r="E55" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="56">
@@ -4300,7 +4306,7 @@
         <v>880</v>
       </c>
       <c r="E56" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="57">
@@ -4317,7 +4323,7 @@
         <v>881</v>
       </c>
       <c r="E57" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="58">
@@ -4334,7 +4340,7 @@
         <v>882</v>
       </c>
       <c r="E58" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="59">
@@ -4351,7 +4357,7 @@
         <v>857</v>
       </c>
       <c r="E59" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="60">
@@ -4368,7 +4374,7 @@
         <v>883</v>
       </c>
       <c r="E60" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="61">
@@ -4385,7 +4391,7 @@
         <v>884</v>
       </c>
       <c r="E61" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="62">
@@ -4402,7 +4408,7 @@
         <v>857</v>
       </c>
       <c r="E62" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="63">
@@ -4419,7 +4425,7 @@
         <v>885</v>
       </c>
       <c r="E63" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="64">
@@ -4436,7 +4442,7 @@
         <v>886</v>
       </c>
       <c r="E64" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="65">
@@ -4453,7 +4459,7 @@
         <v>887</v>
       </c>
       <c r="E65" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="66">
@@ -4470,7 +4476,7 @@
         <v>888</v>
       </c>
       <c r="E66" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="67">
@@ -4487,7 +4493,7 @@
         <v>889</v>
       </c>
       <c r="E67" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="68">
@@ -4504,7 +4510,7 @@
         <v>890</v>
       </c>
       <c r="E68" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="69">
@@ -4521,7 +4527,7 @@
         <v>891</v>
       </c>
       <c r="E69" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="70">
@@ -4538,7 +4544,7 @@
         <v>892</v>
       </c>
       <c r="E70" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="71">
@@ -4555,7 +4561,7 @@
         <v>893</v>
       </c>
       <c r="E71" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="72">
@@ -4572,7 +4578,7 @@
         <v>894</v>
       </c>
       <c r="E72" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="73">
@@ -4589,7 +4595,7 @@
         <v>895</v>
       </c>
       <c r="E73" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="74">
@@ -4606,7 +4612,7 @@
         <v>896</v>
       </c>
       <c r="E74" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="75">
@@ -4623,7 +4629,7 @@
         <v>887</v>
       </c>
       <c r="E75" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="76">
@@ -4640,7 +4646,7 @@
         <v>897</v>
       </c>
       <c r="E76" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="77">
@@ -4657,7 +4663,7 @@
         <v>898</v>
       </c>
       <c r="E77" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="78">
@@ -4674,7 +4680,7 @@
         <v>899</v>
       </c>
       <c r="E78" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="79">
@@ -4691,7 +4697,7 @@
         <v>900</v>
       </c>
       <c r="E79" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="80">
@@ -4708,7 +4714,7 @@
         <v>901</v>
       </c>
       <c r="E80" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="81">
@@ -4725,7 +4731,7 @@
         <v>902</v>
       </c>
       <c r="E81" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="82">
@@ -4742,7 +4748,7 @@
         <v>903</v>
       </c>
       <c r="E82" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="83">
@@ -4759,7 +4765,7 @@
         <v>904</v>
       </c>
       <c r="E83" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="84">
@@ -4776,7 +4782,7 @@
         <v>905</v>
       </c>
       <c r="E84" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="85">
@@ -4793,7 +4799,7 @@
         <v>887</v>
       </c>
       <c r="E85" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="86">
@@ -4810,7 +4816,7 @@
         <v>887</v>
       </c>
       <c r="E86" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="87">
@@ -4827,7 +4833,7 @@
         <v>906</v>
       </c>
       <c r="E87" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="88">
@@ -4844,7 +4850,7 @@
         <v>907</v>
       </c>
       <c r="E88" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="89">
@@ -4861,7 +4867,7 @@
         <v>908</v>
       </c>
       <c r="E89" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="90">
@@ -4878,7 +4884,7 @@
         <v>909</v>
       </c>
       <c r="E90" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="91">
@@ -4895,7 +4901,7 @@
         <v>910</v>
       </c>
       <c r="E91" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="92">
@@ -4912,7 +4918,7 @@
         <v>911</v>
       </c>
       <c r="E92" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="93">
@@ -4929,7 +4935,7 @@
         <v>912</v>
       </c>
       <c r="E93" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="94">
@@ -4946,7 +4952,7 @@
         <v>906</v>
       </c>
       <c r="E94" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="95">
@@ -4963,7 +4969,7 @@
         <v>913</v>
       </c>
       <c r="E95" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="96">
@@ -4980,7 +4986,7 @@
         <v>914</v>
       </c>
       <c r="E96" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="97">
@@ -4997,7 +5003,7 @@
         <v>915</v>
       </c>
       <c r="E97" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="98">
@@ -5014,7 +5020,7 @@
         <v>916</v>
       </c>
       <c r="E98" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="99">
@@ -5031,7 +5037,7 @@
         <v>917</v>
       </c>
       <c r="E99" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="100">
@@ -5048,7 +5054,7 @@
         <v>395</v>
       </c>
       <c r="E100" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="101">
@@ -5065,7 +5071,7 @@
         <v>906</v>
       </c>
       <c r="E101" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="102">
@@ -5082,7 +5088,7 @@
         <v>906</v>
       </c>
       <c r="E102" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="103">
@@ -5099,7 +5105,7 @@
         <v>830</v>
       </c>
       <c r="E103" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="104">
@@ -5116,7 +5122,7 @@
         <v>918</v>
       </c>
       <c r="E104" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="105">
@@ -5133,7 +5139,7 @@
         <v>919</v>
       </c>
       <c r="E105" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="106">
@@ -5150,7 +5156,7 @@
         <v>920</v>
       </c>
       <c r="E106" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="107">
@@ -5167,7 +5173,7 @@
         <v>921</v>
       </c>
       <c r="E107" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="108">
@@ -5184,7 +5190,7 @@
         <v>922</v>
       </c>
       <c r="E108" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="109">
@@ -5201,7 +5207,7 @@
         <v>923</v>
       </c>
       <c r="E109" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="110">
@@ -5218,7 +5224,7 @@
         <v>924</v>
       </c>
       <c r="E110" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="111">
@@ -5235,7 +5241,7 @@
         <v>925</v>
       </c>
       <c r="E111" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="112">
@@ -5252,7 +5258,7 @@
         <v>926</v>
       </c>
       <c r="E112" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="113">
@@ -5269,7 +5275,7 @@
         <v>927</v>
       </c>
       <c r="E113" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="114">
@@ -5286,7 +5292,7 @@
         <v>928</v>
       </c>
       <c r="E114" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="115">
@@ -5303,7 +5309,7 @@
         <v>830</v>
       </c>
       <c r="E115" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="116">
@@ -5320,7 +5326,7 @@
         <v>929</v>
       </c>
       <c r="E116" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="117">
@@ -5337,7 +5343,7 @@
         <v>930</v>
       </c>
       <c r="E117" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="118">
@@ -5354,7 +5360,7 @@
         <v>931</v>
       </c>
       <c r="E118" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="119">
@@ -5371,7 +5377,7 @@
         <v>932</v>
       </c>
       <c r="E119" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="120">
@@ -5388,7 +5394,7 @@
         <v>933</v>
       </c>
       <c r="E120" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="121">
@@ -5405,7 +5411,7 @@
         <v>934</v>
       </c>
       <c r="E121" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="122">
@@ -5422,7 +5428,7 @@
         <v>935</v>
       </c>
       <c r="E122" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="123">
@@ -5439,7 +5445,7 @@
         <v>936</v>
       </c>
       <c r="E123" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="124">
@@ -5456,7 +5462,7 @@
         <v>937</v>
       </c>
       <c r="E124" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="125">
@@ -5473,7 +5479,7 @@
         <v>938</v>
       </c>
       <c r="E125" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="126">
@@ -5490,7 +5496,7 @@
         <v>939</v>
       </c>
       <c r="E126" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="127">
@@ -5507,7 +5513,7 @@
         <v>830</v>
       </c>
       <c r="E127" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="128">
@@ -5524,7 +5530,7 @@
         <v>940</v>
       </c>
       <c r="E128" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="129">
@@ -5541,7 +5547,7 @@
         <v>941</v>
       </c>
       <c r="E129" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="130">
@@ -5558,7 +5564,7 @@
         <v>830</v>
       </c>
       <c r="E130" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="131">
@@ -5575,7 +5581,7 @@
         <v>942</v>
       </c>
       <c r="E131" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="132">
@@ -5592,7 +5598,7 @@
         <v>943</v>
       </c>
       <c r="E132" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="133">
@@ -5609,7 +5615,7 @@
         <v>857</v>
       </c>
       <c r="E133" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="134">
@@ -5626,7 +5632,7 @@
         <v>944</v>
       </c>
       <c r="E134" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="135">
@@ -5643,7 +5649,7 @@
         <v>945</v>
       </c>
       <c r="E135" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="136">
@@ -5660,7 +5666,7 @@
         <v>946</v>
       </c>
       <c r="E136" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="137">
@@ -5677,7 +5683,7 @@
         <v>947</v>
       </c>
       <c r="E137" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="138">
@@ -5694,7 +5700,7 @@
         <v>948</v>
       </c>
       <c r="E138" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="139">
@@ -5711,7 +5717,7 @@
         <v>949</v>
       </c>
       <c r="E139" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="140">
@@ -5728,7 +5734,7 @@
         <v>950</v>
       </c>
       <c r="E140" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="141">
@@ -5745,7 +5751,7 @@
         <v>951</v>
       </c>
       <c r="E141" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="142">
@@ -5762,7 +5768,7 @@
         <v>952</v>
       </c>
       <c r="E142" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="143">
@@ -5779,7 +5785,7 @@
         <v>953</v>
       </c>
       <c r="E143" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="144">
@@ -5796,7 +5802,7 @@
         <v>954</v>
       </c>
       <c r="E144" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="145">
@@ -5813,7 +5819,7 @@
         <v>857</v>
       </c>
       <c r="E145" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="146">
@@ -5830,7 +5836,7 @@
         <v>955</v>
       </c>
       <c r="E146" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="147">
@@ -5847,7 +5853,7 @@
         <v>956</v>
       </c>
       <c r="E147" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="148">
@@ -5864,7 +5870,7 @@
         <v>957</v>
       </c>
       <c r="E148" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="149">
@@ -5881,7 +5887,7 @@
         <v>958</v>
       </c>
       <c r="E149" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="150">
@@ -5898,7 +5904,7 @@
         <v>959</v>
       </c>
       <c r="E150" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="151">
@@ -5915,7 +5921,7 @@
         <v>960</v>
       </c>
       <c r="E151" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="152">
@@ -5932,7 +5938,7 @@
         <v>961</v>
       </c>
       <c r="E152" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="153">
@@ -5949,7 +5955,7 @@
         <v>962</v>
       </c>
       <c r="E153" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="154">
@@ -5966,7 +5972,7 @@
         <v>963</v>
       </c>
       <c r="E154" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="155">
@@ -5983,7 +5989,7 @@
         <v>964</v>
       </c>
       <c r="E155" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="156">
@@ -6000,7 +6006,7 @@
         <v>965</v>
       </c>
       <c r="E156" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="157">
@@ -6017,7 +6023,7 @@
         <v>857</v>
       </c>
       <c r="E157" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="158">
@@ -6034,7 +6040,7 @@
         <v>966</v>
       </c>
       <c r="E158" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="159">
@@ -6051,7 +6057,7 @@
         <v>967</v>
       </c>
       <c r="E159" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="160">
@@ -6068,7 +6074,7 @@
         <v>857</v>
       </c>
       <c r="E160" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="161">
@@ -6085,7 +6091,7 @@
         <v>968</v>
       </c>
       <c r="E161" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="162">
@@ -6102,7 +6108,7 @@
         <v>969</v>
       </c>
       <c r="E162" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="163">
@@ -6119,7 +6125,7 @@
         <v>887</v>
       </c>
       <c r="E163" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="164">
@@ -6136,7 +6142,7 @@
         <v>970</v>
       </c>
       <c r="E164" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="165">
@@ -6153,7 +6159,7 @@
         <v>971</v>
       </c>
       <c r="E165" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="166">
@@ -6170,7 +6176,7 @@
         <v>972</v>
       </c>
       <c r="E166" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="167">
@@ -6187,7 +6193,7 @@
         <v>973</v>
       </c>
       <c r="E167" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="168">
@@ -6204,7 +6210,7 @@
         <v>974</v>
       </c>
       <c r="E168" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="169">
@@ -6221,7 +6227,7 @@
         <v>975</v>
       </c>
       <c r="E169" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="170">
@@ -6238,7 +6244,7 @@
         <v>976</v>
       </c>
       <c r="E170" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="171">
@@ -6255,7 +6261,7 @@
         <v>977</v>
       </c>
       <c r="E171" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="172">
@@ -6272,7 +6278,7 @@
         <v>978</v>
       </c>
       <c r="E172" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="173">
@@ -6289,7 +6295,7 @@
         <v>887</v>
       </c>
       <c r="E173" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="174">
@@ -6306,7 +6312,7 @@
         <v>979</v>
       </c>
       <c r="E174" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="175">
@@ -6323,7 +6329,7 @@
         <v>980</v>
       </c>
       <c r="E175" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="176">
@@ -6340,7 +6346,7 @@
         <v>981</v>
       </c>
       <c r="E176" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="177">
@@ -6357,7 +6363,7 @@
         <v>982</v>
       </c>
       <c r="E177" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="178">
@@ -6374,7 +6380,7 @@
         <v>983</v>
       </c>
       <c r="E178" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="179">
@@ -6391,7 +6397,7 @@
         <v>984</v>
       </c>
       <c r="E179" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="180">
@@ -6408,7 +6414,7 @@
         <v>985</v>
       </c>
       <c r="E180" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="181">
@@ -6425,7 +6431,7 @@
         <v>986</v>
       </c>
       <c r="E181" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="182">
@@ -6442,7 +6448,7 @@
         <v>987</v>
       </c>
       <c r="E182" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="183">
@@ -6459,7 +6465,7 @@
         <v>887</v>
       </c>
       <c r="E183" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="184">
@@ -6476,7 +6482,7 @@
         <v>887</v>
       </c>
       <c r="E184" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="185">
@@ -6493,7 +6499,7 @@
         <v>906</v>
       </c>
       <c r="E185" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="186">
@@ -6510,7 +6516,7 @@
         <v>988</v>
       </c>
       <c r="E186" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="187">
@@ -6527,7 +6533,7 @@
         <v>989</v>
       </c>
       <c r="E187" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="188">
@@ -6544,7 +6550,7 @@
         <v>990</v>
       </c>
       <c r="E188" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="189">
@@ -6561,7 +6567,7 @@
         <v>991</v>
       </c>
       <c r="E189" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="190">
@@ -6578,7 +6584,7 @@
         <v>992</v>
       </c>
       <c r="E190" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="191">
@@ -6595,7 +6601,7 @@
         <v>993</v>
       </c>
       <c r="E191" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="192">
@@ -6612,7 +6618,7 @@
         <v>906</v>
       </c>
       <c r="E192" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="193">
@@ -6629,7 +6635,7 @@
         <v>994</v>
       </c>
       <c r="E193" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="194">
@@ -6646,7 +6652,7 @@
         <v>995</v>
       </c>
       <c r="E194" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="195">
@@ -6663,7 +6669,7 @@
         <v>996</v>
       </c>
       <c r="E195" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="196">
@@ -6677,10 +6683,10 @@
         <v>735</v>
       </c>
       <c r="D196" t="s">
-        <v>475</v>
+        <v>997</v>
       </c>
       <c r="E196" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="197">
@@ -6694,10 +6700,10 @@
         <v>736</v>
       </c>
       <c r="D197" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="E197" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="198">
@@ -6711,10 +6717,10 @@
         <v>737</v>
       </c>
       <c r="D198" t="s">
-        <v>477</v>
+        <v>999</v>
       </c>
       <c r="E198" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="199">
@@ -6728,10 +6734,10 @@
         <v>738</v>
       </c>
       <c r="D199" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="E199" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="200">
@@ -6745,10 +6751,10 @@
         <v>739</v>
       </c>
       <c r="D200" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="E200" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="201">
@@ -6762,10 +6768,10 @@
         <v>740</v>
       </c>
       <c r="D201" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="E201" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="202">
@@ -6782,7 +6788,7 @@
         <v>906</v>
       </c>
       <c r="E202" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="203">
@@ -6799,7 +6805,7 @@
         <v>906</v>
       </c>
       <c r="E203" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="204">
@@ -6816,7 +6822,7 @@
         <v>830</v>
       </c>
       <c r="E204" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="205">
@@ -6830,10 +6836,10 @@
         <v>742</v>
       </c>
       <c r="D205" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="E205" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="206">
@@ -6847,10 +6853,10 @@
         <v>743</v>
       </c>
       <c r="D206" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="E206" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="207">
@@ -6864,10 +6870,10 @@
         <v>744</v>
       </c>
       <c r="D207" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="E207" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="208">
@@ -6881,10 +6887,10 @@
         <v>745</v>
       </c>
       <c r="D208" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="E208" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="209">
@@ -6898,10 +6904,10 @@
         <v>746</v>
       </c>
       <c r="D209" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="E209" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="210">
@@ -6915,10 +6921,10 @@
         <v>747</v>
       </c>
       <c r="D210" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="E210" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="211">
@@ -6932,10 +6938,10 @@
         <v>748</v>
       </c>
       <c r="D211" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="E211" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="212">
@@ -6949,10 +6955,10 @@
         <v>749</v>
       </c>
       <c r="D212" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="E212" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="213">
@@ -6966,10 +6972,10 @@
         <v>750</v>
       </c>
       <c r="D213" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="E213" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="214">
@@ -6983,10 +6989,10 @@
         <v>751</v>
       </c>
       <c r="D214" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="E214" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="215">
@@ -7000,10 +7006,10 @@
         <v>752</v>
       </c>
       <c r="D215" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="E215" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="216">
@@ -7020,7 +7026,7 @@
         <v>830</v>
       </c>
       <c r="E216" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="217">
@@ -7034,10 +7040,10 @@
         <v>753</v>
       </c>
       <c r="D217" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="E217" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="218">
@@ -7051,10 +7057,10 @@
         <v>754</v>
       </c>
       <c r="D218" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="E218" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="219">
@@ -7068,10 +7074,10 @@
         <v>755</v>
       </c>
       <c r="D219" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="E219" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="220">
@@ -7085,10 +7091,10 @@
         <v>756</v>
       </c>
       <c r="D220" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="E220" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="221">
@@ -7102,10 +7108,10 @@
         <v>757</v>
       </c>
       <c r="D221" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="E221" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="222">
@@ -7119,10 +7125,10 @@
         <v>758</v>
       </c>
       <c r="D222" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="E222" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="223">
@@ -7136,10 +7142,10 @@
         <v>759</v>
       </c>
       <c r="D223" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="E223" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="224">
@@ -7153,10 +7159,10 @@
         <v>760</v>
       </c>
       <c r="D224" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="E224" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="225">
@@ -7170,10 +7176,10 @@
         <v>761</v>
       </c>
       <c r="D225" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="E225" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="226">
@@ -7187,10 +7193,10 @@
         <v>762</v>
       </c>
       <c r="D226" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="E226" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="227">
@@ -7204,10 +7210,10 @@
         <v>763</v>
       </c>
       <c r="D227" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="E227" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="228">
@@ -7224,7 +7230,7 @@
         <v>830</v>
       </c>
       <c r="E228" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="229">
@@ -7238,10 +7244,10 @@
         <v>764</v>
       </c>
       <c r="D229" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="E229" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="230">
@@ -7255,10 +7261,10 @@
         <v>765</v>
       </c>
       <c r="D230" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="E230" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="231">
@@ -7275,7 +7281,7 @@
         <v>830</v>
       </c>
       <c r="E231" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="232">
@@ -7289,10 +7295,10 @@
         <v>766</v>
       </c>
       <c r="D232" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="E232" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="233">
@@ -7306,10 +7312,10 @@
         <v>767</v>
       </c>
       <c r="D233" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="E233" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="234">
@@ -7326,7 +7332,7 @@
         <v>857</v>
       </c>
       <c r="E234" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="235">
@@ -7340,10 +7346,10 @@
         <v>768</v>
       </c>
       <c r="D235" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="E235" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="236">
@@ -7357,10 +7363,10 @@
         <v>769</v>
       </c>
       <c r="D236" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="E236" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="237">
@@ -7374,10 +7380,10 @@
         <v>770</v>
       </c>
       <c r="D237" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="E237" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="238">
@@ -7391,10 +7397,10 @@
         <v>771</v>
       </c>
       <c r="D238" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="E238" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="239">
@@ -7408,10 +7414,10 @@
         <v>772</v>
       </c>
       <c r="D239" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="E239" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="240">
@@ -7425,10 +7431,10 @@
         <v>773</v>
       </c>
       <c r="D240" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="E240" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="241">
@@ -7442,10 +7448,10 @@
         <v>774</v>
       </c>
       <c r="D241" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="E241" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="242">
@@ -7459,10 +7465,10 @@
         <v>775</v>
       </c>
       <c r="D242" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="E242" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="243">
@@ -7476,10 +7482,10 @@
         <v>776</v>
       </c>
       <c r="D243" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="E243" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="244">
@@ -7493,10 +7499,10 @@
         <v>777</v>
       </c>
       <c r="D244" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="E244" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="245">
@@ -7510,10 +7516,10 @@
         <v>778</v>
       </c>
       <c r="D245" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="E245" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="246">
@@ -7527,10 +7533,10 @@
         <v>779</v>
       </c>
       <c r="D246" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="E246" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="247">
@@ -7544,10 +7550,10 @@
         <v>780</v>
       </c>
       <c r="D247" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="E247" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="248">
@@ -7561,10 +7567,10 @@
         <v>781</v>
       </c>
       <c r="D248" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="E248" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="249">
@@ -7581,7 +7587,7 @@
         <v>857</v>
       </c>
       <c r="E249" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="250">
@@ -7595,10 +7601,10 @@
         <v>782</v>
       </c>
       <c r="D250" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="E250" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="251">
@@ -7612,10 +7618,10 @@
         <v>783</v>
       </c>
       <c r="D251" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="E251" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="252">
@@ -7629,10 +7635,10 @@
         <v>784</v>
       </c>
       <c r="D252" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="E252" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="253">
@@ -7646,10 +7652,10 @@
         <v>785</v>
       </c>
       <c r="D253" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="E253" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="254">
@@ -7663,10 +7669,10 @@
         <v>786</v>
       </c>
       <c r="D254" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="E254" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="255">
@@ -7680,10 +7686,10 @@
         <v>787</v>
       </c>
       <c r="D255" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="E255" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="256">
@@ -7697,10 +7703,10 @@
         <v>788</v>
       </c>
       <c r="D256" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="E256" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="257">
@@ -7714,10 +7720,10 @@
         <v>789</v>
       </c>
       <c r="D257" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="E257" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="258">
@@ -7731,10 +7737,10 @@
         <v>790</v>
       </c>
       <c r="D258" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="E258" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="259">
@@ -7748,10 +7754,10 @@
         <v>791</v>
       </c>
       <c r="D259" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="E259" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="260">
@@ -7765,10 +7771,10 @@
         <v>792</v>
       </c>
       <c r="D260" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="E260" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="261">
@@ -7785,7 +7791,7 @@
         <v>857</v>
       </c>
       <c r="E261" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="262">
@@ -7799,10 +7805,10 @@
         <v>793</v>
       </c>
       <c r="D262" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="E262" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="263">
@@ -7816,10 +7822,10 @@
         <v>794</v>
       </c>
       <c r="D263" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="E263" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="264">
@@ -7836,7 +7842,7 @@
         <v>857</v>
       </c>
       <c r="E264" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="265">
@@ -7850,10 +7856,10 @@
         <v>795</v>
       </c>
       <c r="D265" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="E265" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="266">
@@ -7867,10 +7873,10 @@
         <v>796</v>
       </c>
       <c r="D266" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="E266" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="267">
@@ -7887,7 +7893,7 @@
         <v>887</v>
       </c>
       <c r="E267" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="268">
@@ -7901,10 +7907,10 @@
         <v>797</v>
       </c>
       <c r="D268" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="E268" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="269">
@@ -7918,10 +7924,10 @@
         <v>798</v>
       </c>
       <c r="D269" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="E269" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="270">
@@ -7935,10 +7941,10 @@
         <v>799</v>
       </c>
       <c r="D270" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="E270" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="271">
@@ -7952,10 +7958,10 @@
         <v>800</v>
       </c>
       <c r="D271" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="E271" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="272">
@@ -7969,10 +7975,10 @@
         <v>801</v>
       </c>
       <c r="D272" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="E272" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="273">
@@ -7986,10 +7992,10 @@
         <v>802</v>
       </c>
       <c r="D273" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="E273" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="274">
@@ -8003,10 +8009,10 @@
         <v>803</v>
       </c>
       <c r="D274" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="E274" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="275">
@@ -8020,10 +8026,10 @@
         <v>804</v>
       </c>
       <c r="D275" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="E275" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="276">
@@ -8037,10 +8043,10 @@
         <v>805</v>
       </c>
       <c r="D276" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="E276" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="277">
@@ -8057,7 +8063,7 @@
         <v>887</v>
       </c>
       <c r="E277" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="278">
@@ -8071,10 +8077,10 @@
         <v>806</v>
       </c>
       <c r="D278" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="E278" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="279">
@@ -8088,10 +8094,10 @@
         <v>807</v>
       </c>
       <c r="D279" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="E279" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="280">
@@ -8105,10 +8111,10 @@
         <v>808</v>
       </c>
       <c r="D280" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="E280" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="281">
@@ -8122,10 +8128,10 @@
         <v>809</v>
       </c>
       <c r="D281" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="E281" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="282">
@@ -8139,10 +8145,10 @@
         <v>810</v>
       </c>
       <c r="D282" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="E282" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="283">
@@ -8156,10 +8162,10 @@
         <v>811</v>
       </c>
       <c r="D283" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="E283" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="284">
@@ -8173,10 +8179,10 @@
         <v>812</v>
       </c>
       <c r="D284" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="E284" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="285">
@@ -8190,10 +8196,10 @@
         <v>813</v>
       </c>
       <c r="D285" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="E285" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="286">
@@ -8207,10 +8213,10 @@
         <v>814</v>
       </c>
       <c r="D286" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="E286" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="287">
@@ -8227,7 +8233,7 @@
         <v>887</v>
       </c>
       <c r="E287" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="288">
@@ -8244,7 +8250,7 @@
         <v>887</v>
       </c>
       <c r="E288" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="289">
@@ -8261,7 +8267,7 @@
         <v>906</v>
       </c>
       <c r="E289" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="290">
@@ -8275,10 +8281,10 @@
         <v>815</v>
       </c>
       <c r="D290" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="E290" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="291">
@@ -8292,10 +8298,10 @@
         <v>816</v>
       </c>
       <c r="D291" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="E291" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="292">
@@ -8309,10 +8315,10 @@
         <v>817</v>
       </c>
       <c r="D292" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="E292" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="293">
@@ -8326,10 +8332,10 @@
         <v>818</v>
       </c>
       <c r="D293" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="E293" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="294">
@@ -8343,10 +8349,10 @@
         <v>819</v>
       </c>
       <c r="D294" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="E294" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="295">
@@ -8360,10 +8366,10 @@
         <v>820</v>
       </c>
       <c r="D295" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="E295" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="296">
@@ -8377,10 +8383,10 @@
         <v>821</v>
       </c>
       <c r="D296" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="E296" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="297">
@@ -8394,10 +8400,10 @@
         <v>822</v>
       </c>
       <c r="D297" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="E297" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="298">
@@ -8414,7 +8420,7 @@
         <v>562</v>
       </c>
       <c r="E298" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="299">
@@ -8431,7 +8437,7 @@
         <v>906</v>
       </c>
       <c r="E299" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="300">
@@ -8445,10 +8451,10 @@
         <v>824</v>
       </c>
       <c r="D300" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="E300" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="301">
@@ -8462,10 +8468,10 @@
         <v>825</v>
       </c>
       <c r="D301" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="E301" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="302">
@@ -8479,10 +8485,10 @@
         <v>826</v>
       </c>
       <c r="D302" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="E302" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="303">
@@ -8496,10 +8502,10 @@
         <v>827</v>
       </c>
       <c r="D303" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="E303" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="304">
@@ -8513,10 +8519,10 @@
         <v>828</v>
       </c>
       <c r="D304" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="E304" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="305">
@@ -8530,10 +8536,10 @@
         <v>829</v>
       </c>
       <c r="D305" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="E305" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="306">
@@ -8550,7 +8556,7 @@
         <v>906</v>
       </c>
       <c r="E306" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="307">
@@ -8567,7 +8573,7 @@
         <v>906</v>
       </c>
       <c r="E307" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
     </row>
   </sheetData>
